--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -108,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,12 +119,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -196,16 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -542,221 +533,221 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,18 +765,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -834,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -865,74 +856,194 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
@@ -1202,18 +1313,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2021,7 +2132,7 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
@@ -2068,18 +2179,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2127,7 +2238,7 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="1">
@@ -2151,7 +2262,7 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
@@ -2165,7 +2276,7 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -2189,7 +2300,7 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -2203,7 +2314,7 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -2227,7 +2338,7 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
@@ -2241,7 +2352,7 @@
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -2265,7 +2376,7 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>3</v>
       </c>
       <c r="L5" s="1">
@@ -2279,7 +2390,7 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -2303,7 +2414,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1">
@@ -2317,7 +2428,7 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
@@ -2341,7 +2452,7 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>2</v>
       </c>
       <c r="L7" s="1">
@@ -2355,7 +2466,7 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -2379,7 +2490,7 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="1">
@@ -2393,7 +2504,7 @@
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1">
@@ -2417,7 +2528,7 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>3</v>
       </c>
       <c r="L9" s="1">
@@ -2431,7 +2542,7 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
@@ -2455,7 +2566,7 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1">
@@ -2469,7 +2580,7 @@
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
@@ -2493,7 +2604,7 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1">
@@ -2507,7 +2618,7 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1">
@@ -2531,7 +2642,7 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="1">
@@ -2545,7 +2656,7 @@
       <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
@@ -2569,7 +2680,7 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>2</v>
       </c>
       <c r="L13" s="1">
@@ -2583,7 +2694,7 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1">
@@ -2607,7 +2718,7 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -2621,7 +2732,7 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1">
@@ -2645,7 +2756,7 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1">
@@ -2659,7 +2770,7 @@
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1">
@@ -2683,7 +2794,7 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>3</v>
       </c>
       <c r="L16" s="1">
@@ -2697,7 +2808,7 @@
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
@@ -2721,7 +2832,7 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>3</v>
       </c>
       <c r="L17" s="1">
@@ -2735,7 +2846,7 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
@@ -2759,7 +2870,7 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="1">
@@ -2773,7 +2884,7 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1">
@@ -2797,7 +2908,7 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -2811,7 +2922,7 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
@@ -2835,7 +2946,7 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="1">
@@ -2849,7 +2960,7 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1">
@@ -2873,7 +2984,7 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>1</v>
       </c>
       <c r="L21" s="1">
@@ -2887,7 +2998,7 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
@@ -2911,7 +3022,7 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>2</v>
       </c>
       <c r="L22" s="1">
@@ -2925,7 +3036,7 @@
       <c r="B23" s="1">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -2949,7 +3060,7 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>3</v>
       </c>
       <c r="L23" s="1">
@@ -2963,7 +3074,7 @@
       <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1">
@@ -2987,7 +3098,7 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
       <c r="L24" s="1">
@@ -3001,7 +3112,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
@@ -3025,7 +3136,7 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1">
@@ -3039,7 +3150,7 @@
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
@@ -3063,7 +3174,7 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="1">
@@ -3077,7 +3188,7 @@
       <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1">
@@ -3101,7 +3212,7 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>3</v>
       </c>
       <c r="L27" s="1">
@@ -3115,7 +3226,7 @@
       <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1">
@@ -3139,7 +3250,7 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1">
@@ -3153,7 +3264,7 @@
       <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1">
@@ -3177,7 +3288,7 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>2</v>
       </c>
       <c r="L29" s="1">
@@ -3191,7 +3302,7 @@
       <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1">
@@ -3215,7 +3326,7 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="1">
@@ -3229,7 +3340,7 @@
       <c r="B31" s="1">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
@@ -3253,7 +3364,7 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" s="1">
@@ -3267,7 +3378,7 @@
       <c r="B32" s="1">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
@@ -3291,7 +3402,7 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" s="1">
@@ -3305,7 +3416,7 @@
       <c r="B33" s="1">
         <v>0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
@@ -3329,7 +3440,7 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="L33" s="1">
@@ -3343,7 +3454,7 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1">
@@ -3367,7 +3478,7 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="1">
@@ -3381,7 +3492,7 @@
       <c r="B35" s="1">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
@@ -3405,7 +3516,7 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>2</v>
       </c>
       <c r="L35" s="1">
@@ -3419,7 +3530,7 @@
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1">
@@ -3443,7 +3554,7 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>2</v>
       </c>
       <c r="L36" s="1">
@@ -3457,7 +3568,7 @@
       <c r="B37" s="1">
         <v>0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
@@ -3481,7 +3592,7 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="1">
@@ -3495,7 +3606,7 @@
       <c r="B38" s="1">
         <v>0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1">
@@ -3519,7 +3630,7 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="1">
@@ -3533,7 +3644,7 @@
       <c r="B39" s="1">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1">
@@ -3557,7 +3668,7 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>3</v>
       </c>
       <c r="L39" s="1">
@@ -3571,7 +3682,7 @@
       <c r="B40" s="1">
         <v>0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
@@ -3595,7 +3706,7 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="1">
@@ -3609,7 +3720,7 @@
       <c r="B41" s="1">
         <v>0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
@@ -3633,7 +3744,7 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>3</v>
       </c>
       <c r="L41" s="1">
@@ -3647,7 +3758,7 @@
       <c r="B42" s="1">
         <v>0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1">
@@ -3671,7 +3782,7 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>2</v>
       </c>
       <c r="L42" s="1">
@@ -3685,7 +3796,7 @@
       <c r="B43" s="1">
         <v>0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>3</v>
       </c>
       <c r="D43" s="1">
@@ -3709,7 +3820,7 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
       <c r="L43" s="1">
@@ -3723,7 +3834,7 @@
       <c r="B44" s="1">
         <v>0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44" s="1">
@@ -3747,7 +3858,7 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>3</v>
       </c>
       <c r="L44" s="1">
@@ -3761,7 +3872,7 @@
       <c r="B45" s="1">
         <v>0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="1">
@@ -3785,7 +3896,7 @@
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45" s="1">
@@ -3799,7 +3910,7 @@
       <c r="B46" s="1">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>3</v>
       </c>
       <c r="D46" s="1">
@@ -3823,7 +3934,7 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="1">
@@ -3837,7 +3948,7 @@
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1">
@@ -3861,7 +3972,7 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>3</v>
       </c>
       <c r="L47" s="1">
@@ -3875,7 +3986,7 @@
       <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>3</v>
       </c>
       <c r="D48" s="1">
@@ -3899,7 +4010,7 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -3913,7 +4024,7 @@
       <c r="B49" s="1">
         <v>0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1">
@@ -3937,7 +4048,7 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="1">
@@ -3951,7 +4062,7 @@
       <c r="B50" s="1">
         <v>0</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>3</v>
       </c>
       <c r="D50" s="1">
@@ -3975,7 +4086,7 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="1">
@@ -3989,7 +4100,7 @@
       <c r="B51" s="1">
         <v>0</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1">
@@ -4013,7 +4124,7 @@
       <c r="J51" s="1">
         <v>0</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="1">
@@ -4027,7 +4138,7 @@
       <c r="B52" s="1">
         <v>0</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1">
@@ -4051,7 +4162,7 @@
       <c r="J52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <v>3</v>
       </c>
       <c r="L52" s="1">
@@ -4065,7 +4176,7 @@
       <c r="B53" s="1">
         <v>0</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1">
@@ -4089,7 +4200,7 @@
       <c r="J53" s="1">
         <v>0</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="1">
@@ -4103,7 +4214,7 @@
       <c r="B54" s="1">
         <v>0</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>3</v>
       </c>
       <c r="D54" s="1">
@@ -4127,7 +4238,7 @@
       <c r="J54" s="1">
         <v>0</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <v>2</v>
       </c>
       <c r="L54" s="1">
@@ -4141,7 +4252,7 @@
       <c r="B55" s="1">
         <v>0</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1">
@@ -4165,7 +4276,7 @@
       <c r="J55" s="1">
         <v>0</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="1">
@@ -4179,7 +4290,7 @@
       <c r="B56" s="1">
         <v>0</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>3</v>
       </c>
       <c r="D56" s="1">
@@ -4203,7 +4314,7 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="1">
         <v>3</v>
       </c>
       <c r="L56" s="1">
@@ -4217,7 +4328,7 @@
       <c r="B57" s="1">
         <v>0</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1">
@@ -4241,7 +4352,7 @@
       <c r="J57" s="1">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1">
@@ -4255,7 +4366,7 @@
       <c r="B58" s="1">
         <v>0</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>3</v>
       </c>
       <c r="D58" s="1">
@@ -4279,7 +4390,7 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <v>1</v>
       </c>
       <c r="L58" s="1">
@@ -4293,7 +4404,7 @@
       <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>3</v>
       </c>
       <c r="D59" s="1">
@@ -4317,7 +4428,7 @@
       <c r="J59" s="1">
         <v>0</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="1">
@@ -4331,7 +4442,7 @@
       <c r="B60" s="1">
         <v>0</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="1">
@@ -4355,7 +4466,7 @@
       <c r="J60" s="1">
         <v>0</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="1">
@@ -4369,7 +4480,7 @@
       <c r="B61" s="1">
         <v>0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>3</v>
       </c>
       <c r="D61" s="1">
@@ -4393,7 +4504,7 @@
       <c r="J61" s="1">
         <v>0</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="1">
         <v>3</v>
       </c>
       <c r="L61" s="1">
@@ -4407,7 +4518,7 @@
       <c r="B62" s="1">
         <v>0</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62" s="1">
@@ -4431,7 +4542,7 @@
       <c r="J62" s="1">
         <v>0</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="1">
         <v>2</v>
       </c>
       <c r="L62" s="1">
@@ -4445,7 +4556,7 @@
       <c r="B63" s="1">
         <v>0</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>2</v>
       </c>
       <c r="D63" s="1">
@@ -4469,7 +4580,7 @@
       <c r="J63" s="1">
         <v>0</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="1">
         <v>1</v>
       </c>
       <c r="L63" s="1">
@@ -4483,7 +4594,7 @@
       <c r="B64" s="1">
         <v>0</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>2</v>
       </c>
       <c r="D64" s="1">
@@ -4507,7 +4618,7 @@
       <c r="J64" s="1">
         <v>0</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="1">
         <v>3</v>
       </c>
       <c r="L64" s="1">
@@ -4521,7 +4632,7 @@
       <c r="B65" s="1">
         <v>0</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>3</v>
       </c>
       <c r="D65" s="1">
@@ -4545,7 +4656,7 @@
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="1">
         <v>2</v>
       </c>
       <c r="L65" s="1">
@@ -4559,7 +4670,7 @@
       <c r="B66" s="1">
         <v>0</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" s="1">
@@ -4583,7 +4694,7 @@
       <c r="J66" s="1">
         <v>0</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="1">
         <v>0</v>
       </c>
       <c r="L66" s="1">
@@ -4597,7 +4708,7 @@
       <c r="B67" s="1">
         <v>0</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1">
@@ -4621,7 +4732,7 @@
       <c r="J67" s="1">
         <v>0</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="1">
         <v>0</v>
       </c>
       <c r="L67" s="1">
@@ -4635,7 +4746,7 @@
       <c r="B68" s="1">
         <v>0</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>3</v>
       </c>
       <c r="D68" s="1">
@@ -4659,7 +4770,7 @@
       <c r="J68" s="1">
         <v>0</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="1">
         <v>3</v>
       </c>
       <c r="L68" s="1">
@@ -4673,7 +4784,7 @@
       <c r="B69" s="1">
         <v>0</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1">
@@ -4697,7 +4808,7 @@
       <c r="J69" s="1">
         <v>0</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="1">
         <v>2</v>
       </c>
       <c r="L69" s="1">
@@ -4711,7 +4822,7 @@
       <c r="B70" s="1">
         <v>0</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>2</v>
       </c>
       <c r="D70" s="1">
@@ -4735,7 +4846,7 @@
       <c r="J70" s="1">
         <v>0</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="1">
         <v>2</v>
       </c>
       <c r="L70" s="1">
@@ -4749,7 +4860,7 @@
       <c r="B71" s="1">
         <v>0</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" s="1">
@@ -4773,7 +4884,7 @@
       <c r="J71" s="1">
         <v>0</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="1">
         <v>3</v>
       </c>
       <c r="L71" s="1">
@@ -4787,7 +4898,7 @@
       <c r="B72" s="1">
         <v>0</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>3</v>
       </c>
       <c r="D72" s="1">
@@ -4811,7 +4922,7 @@
       <c r="J72" s="1">
         <v>0</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="1">
         <v>1</v>
       </c>
       <c r="L72" s="1">
@@ -4825,7 +4936,7 @@
       <c r="B73" s="1">
         <v>0</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" s="1">
@@ -4849,7 +4960,7 @@
       <c r="J73" s="1">
         <v>0</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="1">
         <v>1</v>
       </c>
       <c r="L73" s="1">
@@ -4863,7 +4974,7 @@
       <c r="B74" s="1">
         <v>0</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>3</v>
       </c>
       <c r="D74" s="1">
@@ -4887,7 +4998,7 @@
       <c r="J74" s="1">
         <v>0</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="1">
         <v>3</v>
       </c>
       <c r="L74" s="1">
@@ -4901,7 +5012,7 @@
       <c r="B75" s="1">
         <v>0</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1">
@@ -4925,7 +5036,7 @@
       <c r="J75" s="1">
         <v>0</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="1">
         <v>1</v>
       </c>
       <c r="L75" s="1">
@@ -4939,7 +5050,7 @@
       <c r="B76" s="1">
         <v>0</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>2</v>
       </c>
       <c r="D76" s="1">
@@ -4963,7 +5074,7 @@
       <c r="J76" s="1">
         <v>0</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="1">
@@ -4977,7 +5088,7 @@
       <c r="B77" s="1">
         <v>0</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" s="1">
@@ -5001,7 +5112,7 @@
       <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="1">
         <v>2</v>
       </c>
       <c r="L77" s="1">
@@ -5015,7 +5126,7 @@
       <c r="B78" s="1">
         <v>0</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <v>3</v>
       </c>
       <c r="D78" s="1">
@@ -5039,7 +5150,7 @@
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="1">
         <v>2</v>
       </c>
       <c r="L78" s="1">
@@ -5053,7 +5164,7 @@
       <c r="B79" s="1">
         <v>0</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" s="1">
@@ -5077,7 +5188,7 @@
       <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="1">
         <v>1</v>
       </c>
       <c r="L79" s="1">
@@ -5091,7 +5202,7 @@
       <c r="B80" s="1">
         <v>0</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <v>3</v>
       </c>
       <c r="D80" s="1">
@@ -5115,7 +5226,7 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="1">
@@ -5129,7 +5240,7 @@
       <c r="B81" s="1">
         <v>0</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <v>2</v>
       </c>
       <c r="D81" s="1">
@@ -5153,7 +5264,7 @@
       <c r="J81" s="1">
         <v>0</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="1">
         <v>3</v>
       </c>
       <c r="L81" s="1">
@@ -5167,7 +5278,7 @@
       <c r="B82" s="1">
         <v>0</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <v>3</v>
       </c>
       <c r="D82" s="1">
@@ -5191,7 +5302,7 @@
       <c r="J82" s="1">
         <v>0</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="1">
         <v>0</v>
       </c>
       <c r="L82" s="1">
@@ -5205,7 +5316,7 @@
       <c r="B83" s="1">
         <v>0</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>3</v>
       </c>
       <c r="D83" s="1">
@@ -5229,7 +5340,7 @@
       <c r="J83" s="1">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="1">
         <v>3</v>
       </c>
       <c r="L83" s="1">
@@ -5243,7 +5354,7 @@
       <c r="B84" s="1">
         <v>0</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="1">
         <v>3</v>
       </c>
       <c r="D84" s="1">
@@ -5267,7 +5378,7 @@
       <c r="J84" s="1">
         <v>0</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="1">
         <v>2</v>
       </c>
       <c r="L84" s="1">
@@ -5281,7 +5392,7 @@
       <c r="B85" s="1">
         <v>0</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="1">
@@ -5305,7 +5416,7 @@
       <c r="J85" s="1">
         <v>0</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="1">
         <v>1</v>
       </c>
       <c r="L85" s="1">
@@ -5319,7 +5430,7 @@
       <c r="B86" s="1">
         <v>0</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="1">
         <v>2</v>
       </c>
       <c r="D86" s="1">
@@ -5343,7 +5454,7 @@
       <c r="J86" s="1">
         <v>0</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="1">
         <v>3</v>
       </c>
       <c r="L86" s="1">
@@ -5357,7 +5468,7 @@
       <c r="B87" s="1">
         <v>0</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <v>3</v>
       </c>
       <c r="D87" s="1">
@@ -5381,7 +5492,7 @@
       <c r="J87" s="1">
         <v>0</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="1">
         <v>1</v>
       </c>
       <c r="L87" s="1">
@@ -5395,7 +5506,7 @@
       <c r="B88" s="1">
         <v>0</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="1">
         <v>2</v>
       </c>
       <c r="D88" s="1">
@@ -5419,7 +5530,7 @@
       <c r="J88" s="1">
         <v>0</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="1">
         <v>2</v>
       </c>
       <c r="L88" s="1">
@@ -5433,7 +5544,7 @@
       <c r="B89" s="1">
         <v>0</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="1">
         <v>2</v>
       </c>
       <c r="D89" s="1">
@@ -5457,7 +5568,7 @@
       <c r="J89" s="1">
         <v>0</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="1">
@@ -5471,7 +5582,7 @@
       <c r="B90" s="1">
         <v>0</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <v>3</v>
       </c>
       <c r="D90" s="1">
@@ -5495,7 +5606,7 @@
       <c r="J90" s="1">
         <v>0</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="1">
         <v>3</v>
       </c>
       <c r="L90" s="1">
@@ -5509,7 +5620,7 @@
       <c r="B91" s="1">
         <v>0</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="1">
         <v>2</v>
       </c>
       <c r="D91" s="1">
@@ -5533,7 +5644,7 @@
       <c r="J91" s="1">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="1">
         <v>3</v>
       </c>
       <c r="L91" s="1">
@@ -5547,7 +5658,7 @@
       <c r="B92" s="1">
         <v>0</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <v>3</v>
       </c>
       <c r="D92" s="1">
@@ -5571,7 +5682,7 @@
       <c r="J92" s="1">
         <v>0</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="1">
         <v>2</v>
       </c>
       <c r="L92" s="1">
@@ -5585,7 +5696,7 @@
       <c r="B93" s="1">
         <v>0</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="1">
         <v>2</v>
       </c>
       <c r="D93" s="1">
@@ -5609,7 +5720,7 @@
       <c r="J93" s="1">
         <v>0</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="1">
         <v>2</v>
       </c>
       <c r="L93" s="1">
@@ -5623,7 +5734,7 @@
       <c r="B94" s="1">
         <v>0</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <v>2</v>
       </c>
       <c r="D94" s="1">
@@ -5647,7 +5758,7 @@
       <c r="J94" s="1">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="1">
@@ -5661,7 +5772,7 @@
       <c r="B95" s="1">
         <v>0</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="1">
         <v>3</v>
       </c>
       <c r="D95" s="1">
@@ -5685,7 +5796,7 @@
       <c r="J95" s="1">
         <v>0</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="1">
         <v>1</v>
       </c>
       <c r="L95" s="1">
@@ -5699,7 +5810,7 @@
       <c r="B96" s="1">
         <v>0</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="1">
@@ -5723,7 +5834,7 @@
       <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="1">
         <v>1</v>
       </c>
       <c r="L96" s="1">
@@ -5737,7 +5848,7 @@
       <c r="B97" s="1">
         <v>0</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <v>3</v>
       </c>
       <c r="D97" s="1">
@@ -5761,7 +5872,7 @@
       <c r="J97" s="1">
         <v>0</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="1">
         <v>0</v>
       </c>
       <c r="L97" s="1">
@@ -5775,7 +5886,7 @@
       <c r="B98" s="1">
         <v>0</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <v>2</v>
       </c>
       <c r="D98" s="1">
@@ -5799,7 +5910,7 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="1">
@@ -5813,7 +5924,7 @@
       <c r="B99" s="1">
         <v>0</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1">
@@ -5837,7 +5948,7 @@
       <c r="J99" s="1">
         <v>0</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="1">
         <v>3</v>
       </c>
       <c r="L99" s="1">
@@ -5851,7 +5962,7 @@
       <c r="B100" s="1">
         <v>0</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="1">
@@ -5875,7 +5986,7 @@
       <c r="J100" s="1">
         <v>0</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="1">
         <v>3</v>
       </c>
       <c r="L100" s="1">
@@ -5889,7 +6000,7 @@
       <c r="B101" s="1">
         <v>0</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="1">
         <v>3</v>
       </c>
       <c r="D101" s="1">
@@ -5913,7 +6024,7 @@
       <c r="J101" s="1">
         <v>0</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="1">
         <v>1</v>
       </c>
       <c r="L101" s="1">
@@ -5927,7 +6038,7 @@
       <c r="B102" s="1">
         <v>0</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="1">
@@ -5951,7 +6062,7 @@
       <c r="J102" s="1">
         <v>0</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="1">
         <v>1</v>
       </c>
       <c r="L102" s="1">
@@ -5965,7 +6076,7 @@
       <c r="B103" s="1">
         <v>0</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="1">
         <v>3</v>
       </c>
       <c r="D103" s="1">
@@ -5989,7 +6100,7 @@
       <c r="J103" s="1">
         <v>0</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="1">
         <v>0</v>
       </c>
       <c r="L103" s="1">
@@ -6003,7 +6114,7 @@
       <c r="B104" s="1">
         <v>0</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="1">
@@ -6027,7 +6138,7 @@
       <c r="J104" s="1">
         <v>0</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="1">
         <v>2</v>
       </c>
       <c r="L104" s="1">
@@ -6041,7 +6152,7 @@
       <c r="B105" s="1">
         <v>0</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="1">
         <v>3</v>
       </c>
       <c r="D105" s="1">
@@ -6065,7 +6176,7 @@
       <c r="J105" s="1">
         <v>0</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="1">
         <v>2</v>
       </c>
       <c r="L105" s="1">
@@ -6079,7 +6190,7 @@
       <c r="B106" s="1">
         <v>0</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="1">
         <v>3</v>
       </c>
       <c r="D106" s="1">
@@ -6103,7 +6214,7 @@
       <c r="J106" s="1">
         <v>0</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="1">
         <v>0</v>
       </c>
       <c r="L106" s="1">
@@ -6117,7 +6228,7 @@
       <c r="B107" s="1">
         <v>0</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="1">
         <v>2</v>
       </c>
       <c r="D107" s="1">
@@ -6141,7 +6252,7 @@
       <c r="J107" s="1">
         <v>0</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="1">
         <v>3</v>
       </c>
       <c r="L107" s="1">
@@ -6155,7 +6266,7 @@
       <c r="B108" s="1">
         <v>0</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="1">
         <v>2</v>
       </c>
       <c r="D108" s="1">
@@ -6179,7 +6290,7 @@
       <c r="J108" s="1">
         <v>0</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="1">
         <v>2</v>
       </c>
       <c r="L108" s="1">
@@ -6193,7 +6304,7 @@
       <c r="B109" s="1">
         <v>0</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="1">
         <v>2</v>
       </c>
       <c r="D109" s="1">
@@ -6217,7 +6328,7 @@
       <c r="J109" s="1">
         <v>0</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
@@ -6231,7 +6342,7 @@
       <c r="B110" s="1">
         <v>0</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
@@ -6255,7 +6366,7 @@
       <c r="J110" s="1">
         <v>0</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="1">
         <v>3</v>
       </c>
       <c r="L110" s="1">
@@ -6269,7 +6380,7 @@
       <c r="B111" s="1">
         <v>0</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="1">
         <v>2</v>
       </c>
       <c r="D111" s="1">
@@ -6293,7 +6404,7 @@
       <c r="J111" s="1">
         <v>0</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="1">
         <v>0</v>
       </c>
       <c r="L111" s="1">
@@ -6307,7 +6418,7 @@
       <c r="B112" s="1">
         <v>0</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
@@ -6331,7 +6442,7 @@
       <c r="J112" s="1">
         <v>0</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="1">
         <v>1</v>
       </c>
       <c r="L112" s="1">
@@ -6345,7 +6456,7 @@
       <c r="B113" s="1">
         <v>0</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
@@ -6369,7 +6480,7 @@
       <c r="J113" s="1">
         <v>0</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="1">
         <v>2</v>
       </c>
       <c r="L113" s="1">
@@ -6383,7 +6494,7 @@
       <c r="B114" s="1">
         <v>0</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
@@ -6407,7 +6518,7 @@
       <c r="J114" s="1">
         <v>0</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="1">
         <v>1</v>
       </c>
       <c r="L114" s="1">
@@ -6421,7 +6532,7 @@
       <c r="B115" s="1">
         <v>0</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <v>2</v>
       </c>
       <c r="D115" s="1">
@@ -6445,7 +6556,7 @@
       <c r="J115" s="1">
         <v>0</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="1">
         <v>2</v>
       </c>
       <c r="L115" s="1">
@@ -6459,7 +6570,7 @@
       <c r="B116" s="1">
         <v>0</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="1">
         <v>2</v>
       </c>
       <c r="D116" s="1">
@@ -6483,7 +6594,7 @@
       <c r="J116" s="1">
         <v>0</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="1">
         <v>3</v>
       </c>
       <c r="L116" s="1">
@@ -6497,7 +6608,7 @@
       <c r="B117" s="1">
         <v>0</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="1">
         <v>2</v>
       </c>
       <c r="D117" s="1">
@@ -6521,7 +6632,7 @@
       <c r="J117" s="1">
         <v>0</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="1">
         <v>0</v>
       </c>
       <c r="L117" s="1">
@@ -6535,7 +6646,7 @@
       <c r="B118" s="1">
         <v>0</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
@@ -6559,7 +6670,7 @@
       <c r="J118" s="1">
         <v>0</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="1">
         <v>3</v>
       </c>
       <c r="L118" s="1">
@@ -6573,7 +6684,7 @@
       <c r="B119" s="1">
         <v>0</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
@@ -6597,7 +6708,7 @@
       <c r="J119" s="1">
         <v>0</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="1">
         <v>0</v>
       </c>
       <c r="L119" s="1">
@@ -6611,7 +6722,7 @@
       <c r="B120" s="1">
         <v>0</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
@@ -6635,7 +6746,7 @@
       <c r="J120" s="1">
         <v>0</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="1">
         <v>2</v>
       </c>
       <c r="L120" s="1">
@@ -6649,7 +6760,7 @@
       <c r="B121" s="1">
         <v>0</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="1">
         <v>2</v>
       </c>
       <c r="D121" s="1">
@@ -6673,7 +6784,7 @@
       <c r="J121" s="1">
         <v>0</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="1">
         <v>1</v>
       </c>
       <c r="L121" s="1">
@@ -6687,7 +6798,7 @@
       <c r="B122" s="1">
         <v>0</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
@@ -6711,7 +6822,7 @@
       <c r="J122" s="1">
         <v>0</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="1">
         <v>3</v>
       </c>
       <c r="L122" s="1">
@@ -6725,7 +6836,7 @@
       <c r="B123" s="1">
         <v>0</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="1">
         <v>2</v>
       </c>
       <c r="D123" s="1">
@@ -6749,7 +6860,7 @@
       <c r="J123" s="1">
         <v>0</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="1">
         <v>0</v>
       </c>
       <c r="L123" s="1">
@@ -6763,7 +6874,7 @@
       <c r="B124" s="1">
         <v>0</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="1">
         <v>2</v>
       </c>
       <c r="D124" s="1">
@@ -6787,7 +6898,7 @@
       <c r="J124" s="1">
         <v>0</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="1">
         <v>1</v>
       </c>
       <c r="L124" s="1">
@@ -6801,7 +6912,7 @@
       <c r="B125" s="1">
         <v>0</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
@@ -6825,7 +6936,7 @@
       <c r="J125" s="1">
         <v>0</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="1">
         <v>2</v>
       </c>
       <c r="L125" s="1">
@@ -6839,7 +6950,7 @@
       <c r="B126" s="1">
         <v>0</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="1">
         <v>2</v>
       </c>
       <c r="D126" s="1">
@@ -6863,7 +6974,7 @@
       <c r="J126" s="1">
         <v>0</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="1">
         <v>2</v>
       </c>
       <c r="L126" s="1">
@@ -6877,7 +6988,7 @@
       <c r="B127" s="1">
         <v>0</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="1">
         <v>3</v>
       </c>
       <c r="D127" s="1">
@@ -6901,7 +7012,7 @@
       <c r="J127" s="1">
         <v>0</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="1">
         <v>0</v>
       </c>
       <c r="L127" s="1">
@@ -6915,7 +7026,7 @@
       <c r="B128" s="1">
         <v>0</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="1">
         <v>2</v>
       </c>
       <c r="D128" s="1">
@@ -6939,7 +7050,7 @@
       <c r="J128" s="1">
         <v>0</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K128" s="1">
         <v>3</v>
       </c>
       <c r="L128" s="1">
@@ -6953,7 +7064,7 @@
       <c r="B129" s="1">
         <v>0</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1">
@@ -6977,7 +7088,7 @@
       <c r="J129" s="1">
         <v>0</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="1">
         <v>1</v>
       </c>
       <c r="L129" s="1">
@@ -6991,7 +7102,7 @@
       <c r="B130" s="1">
         <v>0</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="1">
         <v>2</v>
       </c>
       <c r="D130" s="1">
@@ -7015,7 +7126,7 @@
       <c r="J130" s="1">
         <v>0</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="1">
         <v>1</v>
       </c>
       <c r="L130" s="1">
@@ -7029,7 +7140,7 @@
       <c r="B131" s="1">
         <v>0</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="1">
         <v>2</v>
       </c>
       <c r="D131" s="1">
@@ -7053,7 +7164,7 @@
       <c r="J131" s="1">
         <v>0</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="1">
         <v>3</v>
       </c>
       <c r="L131" s="1">
@@ -7067,7 +7178,7 @@
       <c r="B132" s="1">
         <v>0</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="1">
         <v>3</v>
       </c>
       <c r="D132" s="1">
@@ -7091,7 +7202,7 @@
       <c r="J132" s="1">
         <v>0</v>
       </c>
-      <c r="K132" s="3">
+      <c r="K132" s="1">
         <v>3</v>
       </c>
       <c r="L132" s="1">
@@ -7105,7 +7216,7 @@
       <c r="B133" s="1">
         <v>0</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="1">
         <v>3</v>
       </c>
       <c r="D133" s="1">
@@ -7129,7 +7240,7 @@
       <c r="J133" s="1">
         <v>0</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K133" s="1">
         <v>1</v>
       </c>
       <c r="L133" s="1">
@@ -7143,7 +7254,7 @@
       <c r="B134" s="1">
         <v>0</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="1">
         <v>3</v>
       </c>
       <c r="D134" s="1">
@@ -7167,7 +7278,7 @@
       <c r="J134" s="1">
         <v>0</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="1">
         <v>0</v>
       </c>
       <c r="L134" s="1">
@@ -7181,7 +7292,7 @@
       <c r="B135" s="1">
         <v>0</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="1">
         <v>2</v>
       </c>
       <c r="D135" s="1">
@@ -7205,7 +7316,7 @@
       <c r="J135" s="1">
         <v>0</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="1">
         <v>0</v>
       </c>
       <c r="L135" s="1">
@@ -7219,7 +7330,7 @@
       <c r="B136" s="1">
         <v>0</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1">
         <v>3</v>
       </c>
       <c r="D136" s="1">
@@ -7243,7 +7354,7 @@
       <c r="J136" s="1">
         <v>0</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="1">
         <v>2</v>
       </c>
       <c r="L136" s="1">
@@ -7257,7 +7368,7 @@
       <c r="B137" s="1">
         <v>0</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="1">
         <v>2</v>
       </c>
       <c r="D137" s="1">
@@ -7281,7 +7392,7 @@
       <c r="J137" s="1">
         <v>0</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="1">
         <v>2</v>
       </c>
       <c r="L137" s="1">
@@ -7295,7 +7406,7 @@
       <c r="B138" s="1">
         <v>0</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="1">
         <v>2</v>
       </c>
       <c r="D138" s="1">
@@ -7319,7 +7430,7 @@
       <c r="J138" s="1">
         <v>0</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="1">
         <v>3</v>
       </c>
       <c r="L138" s="1">
@@ -7333,7 +7444,7 @@
       <c r="B139" s="1">
         <v>0</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="1">
         <v>3</v>
       </c>
       <c r="D139" s="1">
@@ -7357,7 +7468,7 @@
       <c r="J139" s="1">
         <v>0</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="1">
         <v>3</v>
       </c>
       <c r="L139" s="1">
@@ -7371,7 +7482,7 @@
       <c r="B140" s="1">
         <v>0</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="1">
         <v>3</v>
       </c>
       <c r="D140" s="1">
@@ -7395,7 +7506,7 @@
       <c r="J140" s="1">
         <v>0</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="1">
         <v>1</v>
       </c>
       <c r="L140" s="1">
@@ -7409,7 +7520,7 @@
       <c r="B141" s="1">
         <v>0</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="1">
         <v>2</v>
       </c>
       <c r="D141" s="1">
@@ -7433,7 +7544,7 @@
       <c r="J141" s="1">
         <v>0</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="1">
         <v>0</v>
       </c>
       <c r="L141" s="1">
@@ -7447,7 +7558,7 @@
       <c r="B142" s="1">
         <v>0</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="1">
         <v>2</v>
       </c>
       <c r="D142" s="1">
@@ -7471,7 +7582,7 @@
       <c r="J142" s="1">
         <v>0</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="1">
         <v>1</v>
       </c>
       <c r="L142" s="1">
@@ -7485,7 +7596,7 @@
       <c r="B143" s="1">
         <v>0</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="1">
         <v>2</v>
       </c>
       <c r="D143" s="1">
@@ -7509,7 +7620,7 @@
       <c r="J143" s="1">
         <v>0</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="1">
         <v>2</v>
       </c>
       <c r="L143" s="1">
@@ -7523,7 +7634,7 @@
       <c r="B144" s="1">
         <v>0</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="1">
         <v>3</v>
       </c>
       <c r="D144" s="1">
@@ -7547,7 +7658,7 @@
       <c r="J144" s="1">
         <v>0</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="1">
         <v>0</v>
       </c>
       <c r="L144" s="1">
@@ -7561,7 +7672,7 @@
       <c r="B145" s="1">
         <v>0</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="1">
         <v>3</v>
       </c>
       <c r="D145" s="1">
@@ -7585,7 +7696,7 @@
       <c r="J145" s="1">
         <v>0</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="1">
         <v>2</v>
       </c>
       <c r="L145" s="1">
@@ -7599,7 +7710,7 @@
       <c r="B146" s="1">
         <v>0</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="1">
         <v>3</v>
       </c>
       <c r="D146" s="1">
@@ -7623,7 +7734,7 @@
       <c r="J146" s="1">
         <v>0</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="1">
         <v>3</v>
       </c>
       <c r="L146" s="1">
@@ -7637,7 +7748,7 @@
       <c r="B147" s="1">
         <v>0</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="1">
         <v>2</v>
       </c>
       <c r="D147" s="1">
@@ -7661,7 +7772,7 @@
       <c r="J147" s="1">
         <v>0</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="1">
         <v>3</v>
       </c>
       <c r="L147" s="1">
@@ -7675,7 +7786,7 @@
       <c r="B148" s="1">
         <v>0</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="1">
         <v>2</v>
       </c>
       <c r="D148" s="1">
@@ -7699,7 +7810,7 @@
       <c r="J148" s="1">
         <v>0</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="1">
         <v>2</v>
       </c>
       <c r="L148" s="1">
@@ -7713,7 +7824,7 @@
       <c r="B149" s="1">
         <v>0</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="1">
         <v>3</v>
       </c>
       <c r="D149" s="1">
@@ -7737,7 +7848,7 @@
       <c r="J149" s="1">
         <v>0</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="1">
         <v>1</v>
       </c>
       <c r="L149" s="1">
@@ -7751,7 +7862,7 @@
       <c r="B150" s="1">
         <v>0</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="1">
         <v>3</v>
       </c>
       <c r="D150" s="1">
@@ -7775,7 +7886,7 @@
       <c r="J150" s="1">
         <v>0</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="1">
         <v>2</v>
       </c>
       <c r="L150" s="1">
@@ -7789,7 +7900,7 @@
       <c r="B151" s="1">
         <v>0</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="1">
         <v>2</v>
       </c>
       <c r="D151" s="1">
@@ -7813,7 +7924,7 @@
       <c r="J151" s="1">
         <v>0</v>
       </c>
-      <c r="K151" s="3">
+      <c r="K151" s="1">
         <v>0</v>
       </c>
       <c r="L151" s="1">
@@ -7827,7 +7938,7 @@
       <c r="B152" s="1">
         <v>0</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="1">
         <v>3</v>
       </c>
       <c r="D152" s="1">
@@ -7851,7 +7962,7 @@
       <c r="J152" s="1">
         <v>0</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="1">
         <v>0</v>
       </c>
       <c r="L152" s="1">
@@ -7865,7 +7976,7 @@
       <c r="B153" s="1">
         <v>0</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="1">
         <v>2</v>
       </c>
       <c r="D153" s="1">
@@ -7889,7 +8000,7 @@
       <c r="J153" s="1">
         <v>0</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K153" s="1">
         <v>1</v>
       </c>
       <c r="L153" s="1">
@@ -7903,7 +8014,7 @@
       <c r="B154" s="1">
         <v>0</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="1">
         <v>3</v>
       </c>
       <c r="D154" s="1">
@@ -7927,7 +8038,7 @@
       <c r="J154" s="1">
         <v>0</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K154" s="1">
         <v>3</v>
       </c>
       <c r="L154" s="1">
@@ -7941,7 +8052,7 @@
       <c r="B155" s="1">
         <v>0</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="1">
         <v>3</v>
       </c>
       <c r="D155" s="1">
@@ -7965,7 +8076,7 @@
       <c r="J155" s="1">
         <v>0</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K155" s="1">
         <v>2</v>
       </c>
       <c r="L155" s="1">
@@ -7979,7 +8090,7 @@
       <c r="B156" s="1">
         <v>0</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="1">
         <v>3</v>
       </c>
       <c r="D156" s="1">
@@ -8003,7 +8114,7 @@
       <c r="J156" s="1">
         <v>0</v>
       </c>
-      <c r="K156" s="3">
+      <c r="K156" s="1">
         <v>1</v>
       </c>
       <c r="L156" s="1">
@@ -8017,7 +8128,7 @@
       <c r="B157" s="1">
         <v>0</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="1">
         <v>2</v>
       </c>
       <c r="D157" s="1">
@@ -8041,7 +8152,7 @@
       <c r="J157" s="1">
         <v>0</v>
       </c>
-      <c r="K157" s="3">
+      <c r="K157" s="1">
         <v>1</v>
       </c>
       <c r="L157" s="1">
@@ -8055,7 +8166,7 @@
       <c r="B158" s="1">
         <v>0</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="1">
         <v>2</v>
       </c>
       <c r="D158" s="1">
@@ -8079,7 +8190,7 @@
       <c r="J158" s="1">
         <v>0</v>
       </c>
-      <c r="K158" s="3">
+      <c r="K158" s="1">
         <v>0</v>
       </c>
       <c r="L158" s="1">
@@ -8093,7 +8204,7 @@
       <c r="B159" s="1">
         <v>0</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="1">
         <v>3</v>
       </c>
       <c r="D159" s="1">
@@ -8117,7 +8228,7 @@
       <c r="J159" s="1">
         <v>0</v>
       </c>
-      <c r="K159" s="3">
+      <c r="K159" s="1">
         <v>0</v>
       </c>
       <c r="L159" s="1">
@@ -8131,7 +8242,7 @@
       <c r="B160" s="1">
         <v>0</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="1">
         <v>2</v>
       </c>
       <c r="D160" s="1">
@@ -8155,7 +8266,7 @@
       <c r="J160" s="1">
         <v>0</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K160" s="1">
         <v>2</v>
       </c>
       <c r="L160" s="1">
@@ -8169,7 +8280,7 @@
       <c r="B161" s="1">
         <v>0</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="1">
         <v>2</v>
       </c>
       <c r="D161" s="1">
@@ -8193,7 +8304,7 @@
       <c r="J161" s="1">
         <v>0</v>
       </c>
-      <c r="K161" s="3">
+      <c r="K161" s="1">
         <v>3</v>
       </c>
       <c r="L161" s="1">
@@ -8207,7 +8318,7 @@
       <c r="B162" s="1">
         <v>0</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="1">
         <v>2</v>
       </c>
       <c r="D162" s="1">
@@ -8231,7 +8342,7 @@
       <c r="J162" s="1">
         <v>0</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="1">
         <v>3</v>
       </c>
       <c r="L162" s="1">
@@ -8245,7 +8356,7 @@
       <c r="B163" s="1">
         <v>0</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="1">
         <v>3</v>
       </c>
       <c r="D163" s="1">
@@ -8269,7 +8380,7 @@
       <c r="J163" s="1">
         <v>0</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K163" s="1">
         <v>2</v>
       </c>
       <c r="L163" s="1">
@@ -8283,7 +8394,7 @@
       <c r="B164" s="1">
         <v>0</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="1">
         <v>2</v>
       </c>
       <c r="D164" s="1">
@@ -8307,7 +8418,7 @@
       <c r="J164" s="1">
         <v>0</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="1">
         <v>0</v>
       </c>
       <c r="L164" s="1">
@@ -8321,7 +8432,7 @@
       <c r="B165" s="1">
         <v>0</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="1">
         <v>3</v>
       </c>
       <c r="D165" s="1">
@@ -8345,7 +8456,7 @@
       <c r="J165" s="1">
         <v>0</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="1">
         <v>0</v>
       </c>
       <c r="L165" s="1">
@@ -8359,7 +8470,7 @@
       <c r="B166" s="1">
         <v>0</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="1">
         <v>3</v>
       </c>
       <c r="D166" s="1">
@@ -8383,7 +8494,7 @@
       <c r="J166" s="1">
         <v>0</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K166" s="1">
         <v>1</v>
       </c>
       <c r="L166" s="1">
@@ -8397,7 +8508,7 @@
       <c r="B167" s="1">
         <v>0</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="1">
         <v>2</v>
       </c>
       <c r="D167" s="1">
@@ -8421,7 +8532,7 @@
       <c r="J167" s="1">
         <v>0</v>
       </c>
-      <c r="K167" s="3">
+      <c r="K167" s="1">
         <v>1</v>
       </c>
       <c r="L167" s="1">
@@ -8435,7 +8546,7 @@
       <c r="B168" s="1">
         <v>0</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="1">
         <v>3</v>
       </c>
       <c r="D168" s="1">
@@ -8459,7 +8570,7 @@
       <c r="J168" s="1">
         <v>0</v>
       </c>
-      <c r="K168" s="3">
+      <c r="K168" s="1">
         <v>3</v>
       </c>
       <c r="L168" s="1">
@@ -8473,7 +8584,7 @@
       <c r="B169" s="1">
         <v>0</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="1">
         <v>2</v>
       </c>
       <c r="D169" s="1">
@@ -8497,7 +8608,7 @@
       <c r="J169" s="1">
         <v>0</v>
       </c>
-      <c r="K169" s="3">
+      <c r="K169" s="1">
         <v>2</v>
       </c>
       <c r="L169" s="1">
@@ -8511,7 +8622,7 @@
       <c r="B170" s="1">
         <v>0</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="1">
         <v>2</v>
       </c>
       <c r="D170" s="1">
@@ -8535,7 +8646,7 @@
       <c r="J170" s="1">
         <v>0</v>
       </c>
-      <c r="K170" s="3">
+      <c r="K170" s="1">
         <v>3</v>
       </c>
       <c r="L170" s="1">
@@ -8549,7 +8660,7 @@
       <c r="B171" s="1">
         <v>0</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="1">
         <v>3</v>
       </c>
       <c r="D171" s="1">
@@ -8573,7 +8684,7 @@
       <c r="J171" s="1">
         <v>0</v>
       </c>
-      <c r="K171" s="3">
+      <c r="K171" s="1">
         <v>2</v>
       </c>
       <c r="L171" s="1">
@@ -8587,7 +8698,7 @@
       <c r="B172" s="1">
         <v>0</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="1">
         <v>3</v>
       </c>
       <c r="D172" s="1">
@@ -8611,7 +8722,7 @@
       <c r="J172" s="1">
         <v>0</v>
       </c>
-      <c r="K172" s="3">
+      <c r="K172" s="1">
         <v>0</v>
       </c>
       <c r="L172" s="1">
@@ -8625,7 +8736,7 @@
       <c r="B173" s="1">
         <v>0</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="1">
         <v>3</v>
       </c>
       <c r="D173" s="1">
@@ -8649,7 +8760,7 @@
       <c r="J173" s="1">
         <v>0</v>
       </c>
-      <c r="K173" s="3">
+      <c r="K173" s="1">
         <v>3</v>
       </c>
       <c r="L173" s="1">
@@ -8663,7 +8774,7 @@
       <c r="B174" s="1">
         <v>0</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="1">
         <v>2</v>
       </c>
       <c r="D174" s="1">
@@ -8687,7 +8798,7 @@
       <c r="J174" s="1">
         <v>0</v>
       </c>
-      <c r="K174" s="3">
+      <c r="K174" s="1">
         <v>1</v>
       </c>
       <c r="L174" s="1">
@@ -8701,7 +8812,7 @@
       <c r="B175" s="1">
         <v>0</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="1">
         <v>3</v>
       </c>
       <c r="D175" s="1">
@@ -8725,7 +8836,7 @@
       <c r="J175" s="1">
         <v>0</v>
       </c>
-      <c r="K175" s="3">
+      <c r="K175" s="1">
         <v>1</v>
       </c>
       <c r="L175" s="1">
@@ -8739,7 +8850,7 @@
       <c r="B176" s="1">
         <v>0</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="1">
         <v>2</v>
       </c>
       <c r="D176" s="1">
@@ -8763,7 +8874,7 @@
       <c r="J176" s="1">
         <v>0</v>
       </c>
-      <c r="K176" s="3">
+      <c r="K176" s="1">
         <v>2</v>
       </c>
       <c r="L176" s="1">
@@ -8777,7 +8888,7 @@
       <c r="B177" s="1">
         <v>0</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="1">
         <v>2</v>
       </c>
       <c r="D177" s="1">
@@ -8801,7 +8912,7 @@
       <c r="J177" s="1">
         <v>0</v>
       </c>
-      <c r="K177" s="3">
+      <c r="K177" s="1">
         <v>0</v>
       </c>
       <c r="L177" s="1">
@@ -8815,7 +8926,7 @@
       <c r="B178" s="1">
         <v>0</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="1">
         <v>3</v>
       </c>
       <c r="D178" s="1">
@@ -8839,7 +8950,7 @@
       <c r="J178" s="1">
         <v>0</v>
       </c>
-      <c r="K178" s="3">
+      <c r="K178" s="1">
         <v>1</v>
       </c>
       <c r="L178" s="1">
@@ -8853,7 +8964,7 @@
       <c r="B179" s="1">
         <v>0</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="1">
         <v>2</v>
       </c>
       <c r="D179" s="1">
@@ -8877,7 +8988,7 @@
       <c r="J179" s="1">
         <v>0</v>
       </c>
-      <c r="K179" s="3">
+      <c r="K179" s="1">
         <v>0</v>
       </c>
       <c r="L179" s="1">
@@ -8891,7 +9002,7 @@
       <c r="B180" s="1">
         <v>0</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="1">
         <v>3</v>
       </c>
       <c r="D180" s="1">
@@ -8915,7 +9026,7 @@
       <c r="J180" s="1">
         <v>0</v>
       </c>
-      <c r="K180" s="3">
+      <c r="K180" s="1">
         <v>3</v>
       </c>
       <c r="L180" s="1">
@@ -8929,7 +9040,7 @@
       <c r="B181" s="1">
         <v>0</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="1">
         <v>2</v>
       </c>
       <c r="D181" s="1">
@@ -8953,7 +9064,7 @@
       <c r="J181" s="1">
         <v>0</v>
       </c>
-      <c r="K181" s="3">
+      <c r="K181" s="1">
         <v>3</v>
       </c>
       <c r="L181" s="1">
@@ -8967,7 +9078,7 @@
       <c r="B182" s="1">
         <v>0</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="1">
         <v>2</v>
       </c>
       <c r="D182" s="1">
@@ -8991,7 +9102,7 @@
       <c r="J182" s="1">
         <v>0</v>
       </c>
-      <c r="K182" s="3">
+      <c r="K182" s="1">
         <v>1</v>
       </c>
       <c r="L182" s="1">
@@ -9005,7 +9116,7 @@
       <c r="B183" s="1">
         <v>0</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="1">
         <v>3</v>
       </c>
       <c r="D183" s="1">
@@ -9029,7 +9140,7 @@
       <c r="J183" s="1">
         <v>0</v>
       </c>
-      <c r="K183" s="3">
+      <c r="K183" s="1">
         <v>2</v>
       </c>
       <c r="L183" s="1">
@@ -9043,7 +9154,7 @@
       <c r="B184" s="1">
         <v>0</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="1">
         <v>2</v>
       </c>
       <c r="D184" s="1">
@@ -9067,7 +9178,7 @@
       <c r="J184" s="1">
         <v>0</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="1">
         <v>2</v>
       </c>
       <c r="L184" s="1">
@@ -9081,7 +9192,7 @@
       <c r="B185" s="1">
         <v>0</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="1">
         <v>3</v>
       </c>
       <c r="D185" s="1">
@@ -9105,7 +9216,7 @@
       <c r="J185" s="1">
         <v>0</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K185" s="1">
         <v>0</v>
       </c>
       <c r="L185" s="1">
@@ -9119,7 +9230,7 @@
       <c r="B186" s="1">
         <v>0</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="1">
         <v>2</v>
       </c>
       <c r="D186" s="1">
@@ -9143,7 +9254,7 @@
       <c r="J186" s="1">
         <v>0</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="1">
         <v>0</v>
       </c>
       <c r="L186" s="1">
@@ -9157,7 +9268,7 @@
       <c r="B187" s="1">
         <v>0</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="1">
         <v>2</v>
       </c>
       <c r="D187" s="1">
@@ -9181,7 +9292,7 @@
       <c r="J187" s="1">
         <v>0</v>
       </c>
-      <c r="K187" s="3">
+      <c r="K187" s="1">
         <v>3</v>
       </c>
       <c r="L187" s="1">
@@ -9195,7 +9306,7 @@
       <c r="B188" s="1">
         <v>0</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="1">
         <v>3</v>
       </c>
       <c r="D188" s="1">
@@ -9219,7 +9330,7 @@
       <c r="J188" s="1">
         <v>0</v>
       </c>
-      <c r="K188" s="3">
+      <c r="K188" s="1">
         <v>0</v>
       </c>
       <c r="L188" s="1">
@@ -9233,7 +9344,7 @@
       <c r="B189" s="1">
         <v>0</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="1">
         <v>3</v>
       </c>
       <c r="D189" s="1">
@@ -9257,7 +9368,7 @@
       <c r="J189" s="1">
         <v>0</v>
       </c>
-      <c r="K189" s="3">
+      <c r="K189" s="1">
         <v>2</v>
       </c>
       <c r="L189" s="1">
@@ -9271,7 +9382,7 @@
       <c r="B190" s="1">
         <v>0</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="1">
         <v>2</v>
       </c>
       <c r="D190" s="1">
@@ -9295,7 +9406,7 @@
       <c r="J190" s="1">
         <v>0</v>
       </c>
-      <c r="K190" s="3">
+      <c r="K190" s="1">
         <v>2</v>
       </c>
       <c r="L190" s="1">
@@ -9309,7 +9420,7 @@
       <c r="B191" s="1">
         <v>0</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="1">
         <v>3</v>
       </c>
       <c r="D191" s="1">
@@ -9333,7 +9444,7 @@
       <c r="J191" s="1">
         <v>0</v>
       </c>
-      <c r="K191" s="3">
+      <c r="K191" s="1">
         <v>1</v>
       </c>
       <c r="L191" s="1">
@@ -9347,7 +9458,7 @@
       <c r="B192" s="1">
         <v>0</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="1">
         <v>2</v>
       </c>
       <c r="D192" s="1">
@@ -9371,7 +9482,7 @@
       <c r="J192" s="1">
         <v>0</v>
       </c>
-      <c r="K192" s="3">
+      <c r="K192" s="1">
         <v>1</v>
       </c>
       <c r="L192" s="1">
@@ -9385,7 +9496,7 @@
       <c r="B193" s="1">
         <v>0</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="1">
         <v>3</v>
       </c>
       <c r="D193" s="1">
@@ -9409,7 +9520,7 @@
       <c r="J193" s="1">
         <v>0</v>
       </c>
-      <c r="K193" s="3">
+      <c r="K193" s="1">
         <v>3</v>
       </c>
       <c r="L193" s="1">
@@ -9423,7 +9534,7 @@
       <c r="B194" s="1">
         <v>0</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="1">
         <v>2</v>
       </c>
       <c r="D194" s="1">
@@ -9447,7 +9558,7 @@
       <c r="J194" s="1">
         <v>0</v>
       </c>
-      <c r="K194" s="3">
+      <c r="K194" s="1">
         <v>1</v>
       </c>
       <c r="L194" s="1">
@@ -9461,7 +9572,7 @@
       <c r="B195" s="1">
         <v>0</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="1">
         <v>2</v>
       </c>
       <c r="D195" s="1">
@@ -9485,7 +9596,7 @@
       <c r="J195" s="1">
         <v>0</v>
       </c>
-      <c r="K195" s="3">
+      <c r="K195" s="1">
         <v>0</v>
       </c>
       <c r="L195" s="1">
@@ -9499,7 +9610,7 @@
       <c r="B196" s="1">
         <v>0</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="1">
         <v>2</v>
       </c>
       <c r="D196" s="1">
@@ -9523,7 +9634,7 @@
       <c r="J196" s="1">
         <v>0</v>
       </c>
-      <c r="K196" s="3">
+      <c r="K196" s="1">
         <v>3</v>
       </c>
       <c r="L196" s="1">
@@ -9537,7 +9648,7 @@
       <c r="B197" s="1">
         <v>0</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="1">
         <v>3</v>
       </c>
       <c r="D197" s="1">
@@ -9561,7 +9672,7 @@
       <c r="J197" s="1">
         <v>0</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K197" s="1">
         <v>3</v>
       </c>
       <c r="L197" s="1">
@@ -9575,7 +9686,7 @@
       <c r="B198" s="1">
         <v>0</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="1">
         <v>3</v>
       </c>
       <c r="D198" s="1">
@@ -9599,7 +9710,7 @@
       <c r="J198" s="1">
         <v>0</v>
       </c>
-      <c r="K198" s="3">
+      <c r="K198" s="1">
         <v>1</v>
       </c>
       <c r="L198" s="1">
@@ -9613,7 +9724,7 @@
       <c r="B199" s="1">
         <v>0</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="1">
         <v>3</v>
       </c>
       <c r="D199" s="1">
@@ -9637,7 +9748,7 @@
       <c r="J199" s="1">
         <v>0</v>
       </c>
-      <c r="K199" s="3">
+      <c r="K199" s="1">
         <v>0</v>
       </c>
       <c r="L199" s="1">
@@ -9651,7 +9762,7 @@
       <c r="B200" s="1">
         <v>0</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="1">
         <v>2</v>
       </c>
       <c r="D200" s="1">
@@ -9675,7 +9786,7 @@
       <c r="J200" s="1">
         <v>0</v>
       </c>
-      <c r="K200" s="3">
+      <c r="K200" s="1">
         <v>2</v>
       </c>
       <c r="L200" s="1">
@@ -9689,7 +9800,7 @@
       <c r="B201" s="1">
         <v>0</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="1">
         <v>3</v>
       </c>
       <c r="D201" s="1">
@@ -9713,7 +9824,7 @@
       <c r="J201" s="1">
         <v>0</v>
       </c>
-      <c r="K201" s="3">
+      <c r="K201" s="1">
         <v>2</v>
       </c>
       <c r="L201" s="1">
@@ -9727,7 +9838,7 @@
       <c r="B202" s="1">
         <v>0</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="1">
         <v>2</v>
       </c>
       <c r="D202" s="1">
@@ -9751,7 +9862,7 @@
       <c r="J202" s="1">
         <v>0</v>
       </c>
-      <c r="K202" s="3">
+      <c r="K202" s="1">
         <v>1</v>
       </c>
       <c r="L202" s="1">
@@ -9765,7 +9876,7 @@
       <c r="B203" s="1">
         <v>0</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="1">
         <v>3</v>
       </c>
       <c r="D203" s="1">
@@ -9789,7 +9900,7 @@
       <c r="J203" s="1">
         <v>0</v>
       </c>
-      <c r="K203" s="3">
+      <c r="K203" s="1">
         <v>2</v>
       </c>
       <c r="L203" s="1">
@@ -9803,7 +9914,7 @@
       <c r="B204" s="1">
         <v>0</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="1">
         <v>2</v>
       </c>
       <c r="D204" s="1">
@@ -9827,7 +9938,7 @@
       <c r="J204" s="1">
         <v>0</v>
       </c>
-      <c r="K204" s="3">
+      <c r="K204" s="1">
         <v>0</v>
       </c>
       <c r="L204" s="1">
@@ -9841,7 +9952,7 @@
       <c r="B205" s="1">
         <v>0</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="1">
         <v>3</v>
       </c>
       <c r="D205" s="1">
@@ -9865,7 +9976,7 @@
       <c r="J205" s="1">
         <v>0</v>
       </c>
-      <c r="K205" s="3">
+      <c r="K205" s="1">
         <v>1</v>
       </c>
       <c r="L205" s="1">
@@ -9879,7 +9990,7 @@
       <c r="B206" s="1">
         <v>0</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="1">
         <v>3</v>
       </c>
       <c r="D206" s="1">
@@ -9903,7 +10014,7 @@
       <c r="J206" s="1">
         <v>0</v>
       </c>
-      <c r="K206" s="3">
+      <c r="K206" s="1">
         <v>0</v>
       </c>
       <c r="L206" s="1">
@@ -9917,7 +10028,7 @@
       <c r="B207" s="1">
         <v>0</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="1">
         <v>2</v>
       </c>
       <c r="D207" s="1">
@@ -9941,7 +10052,7 @@
       <c r="J207" s="1">
         <v>0</v>
       </c>
-      <c r="K207" s="3">
+      <c r="K207" s="1">
         <v>2</v>
       </c>
       <c r="L207" s="1">
@@ -9955,7 +10066,7 @@
       <c r="B208" s="1">
         <v>0</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="1">
         <v>3</v>
       </c>
       <c r="D208" s="1">
@@ -9979,7 +10090,7 @@
       <c r="J208" s="1">
         <v>0</v>
       </c>
-      <c r="K208" s="3">
+      <c r="K208" s="1">
         <v>3</v>
       </c>
       <c r="L208" s="1">
@@ -9993,7 +10104,7 @@
       <c r="B209" s="1">
         <v>0</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="1">
         <v>2</v>
       </c>
       <c r="D209" s="1">
@@ -10017,7 +10128,7 @@
       <c r="J209" s="1">
         <v>0</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K209" s="1">
         <v>3</v>
       </c>
       <c r="L209" s="1">
@@ -10031,7 +10142,7 @@
       <c r="B210" s="1">
         <v>0</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="1">
         <v>2</v>
       </c>
       <c r="D210" s="1">
@@ -10055,7 +10166,7 @@
       <c r="J210" s="1">
         <v>0</v>
       </c>
-      <c r="K210" s="3">
+      <c r="K210" s="1">
         <v>0</v>
       </c>
       <c r="L210" s="1">
@@ -10069,7 +10180,7 @@
       <c r="B211" s="1">
         <v>0</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="1">
         <v>3</v>
       </c>
       <c r="D211" s="1">
@@ -10093,7 +10204,7 @@
       <c r="J211" s="1">
         <v>0</v>
       </c>
-      <c r="K211" s="3">
+      <c r="K211" s="1">
         <v>3</v>
       </c>
       <c r="L211" s="1">
@@ -10107,7 +10218,7 @@
       <c r="B212" s="1">
         <v>0</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="1">
         <v>2</v>
       </c>
       <c r="D212" s="1">
@@ -10131,7 +10242,7 @@
       <c r="J212" s="1">
         <v>0</v>
       </c>
-      <c r="K212" s="3">
+      <c r="K212" s="1">
         <v>2</v>
       </c>
       <c r="L212" s="1">
@@ -10145,7 +10256,7 @@
       <c r="B213" s="1">
         <v>0</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="1">
         <v>2</v>
       </c>
       <c r="D213" s="1">
@@ -10169,7 +10280,7 @@
       <c r="J213" s="1">
         <v>0</v>
       </c>
-      <c r="K213" s="3">
+      <c r="K213" s="1">
         <v>3</v>
       </c>
       <c r="L213" s="1">
@@ -10183,7 +10294,7 @@
       <c r="B214" s="1">
         <v>0</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="1">
         <v>3</v>
       </c>
       <c r="D214" s="1">
@@ -10207,7 +10318,7 @@
       <c r="J214" s="1">
         <v>0</v>
       </c>
-      <c r="K214" s="3">
+      <c r="K214" s="1">
         <v>2</v>
       </c>
       <c r="L214" s="1">
@@ -10221,7 +10332,7 @@
       <c r="B215" s="1">
         <v>0</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="1">
         <v>3</v>
       </c>
       <c r="D215" s="1">
@@ -10245,7 +10356,7 @@
       <c r="J215" s="1">
         <v>0</v>
       </c>
-      <c r="K215" s="3">
+      <c r="K215" s="1">
         <v>0</v>
       </c>
       <c r="L215" s="1">
@@ -10259,7 +10370,7 @@
       <c r="B216" s="1">
         <v>0</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="1">
         <v>3</v>
       </c>
       <c r="D216" s="1">
@@ -10283,7 +10394,7 @@
       <c r="J216" s="1">
         <v>0</v>
       </c>
-      <c r="K216" s="3">
+      <c r="K216" s="1">
         <v>1</v>
       </c>
       <c r="L216" s="1">
@@ -10297,7 +10408,7 @@
       <c r="B217" s="1">
         <v>0</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="1">
         <v>2</v>
       </c>
       <c r="D217" s="1">
@@ -10321,7 +10432,7 @@
       <c r="J217" s="1">
         <v>0</v>
       </c>
-      <c r="K217" s="3">
+      <c r="K217" s="1">
         <v>1</v>
       </c>
       <c r="L217" s="1">
@@ -10335,7 +10446,7 @@
       <c r="B218" s="1">
         <v>0</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="1">
         <v>3</v>
       </c>
       <c r="D218" s="1">
@@ -10359,7 +10470,7 @@
       <c r="J218" s="1">
         <v>0</v>
       </c>
-      <c r="K218" s="3">
+      <c r="K218" s="1">
         <v>2</v>
       </c>
       <c r="L218" s="1">
@@ -10373,7 +10484,7 @@
       <c r="B219" s="1">
         <v>0</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="1">
         <v>2</v>
       </c>
       <c r="D219" s="1">
@@ -10397,7 +10508,7 @@
       <c r="J219" s="1">
         <v>0</v>
       </c>
-      <c r="K219" s="3">
+      <c r="K219" s="1">
         <v>3</v>
       </c>
       <c r="L219" s="1">
@@ -10411,7 +10522,7 @@
       <c r="B220" s="1">
         <v>0</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="1">
         <v>3</v>
       </c>
       <c r="D220" s="1">
@@ -10435,7 +10546,7 @@
       <c r="J220" s="1">
         <v>0</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K220" s="1">
         <v>0</v>
       </c>
       <c r="L220" s="1">
@@ -10449,7 +10560,7 @@
       <c r="B221" s="1">
         <v>0</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="1">
         <v>2</v>
       </c>
       <c r="D221" s="1">
@@ -10473,7 +10584,7 @@
       <c r="J221" s="1">
         <v>0</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K221" s="1">
         <v>2</v>
       </c>
       <c r="L221" s="1">
@@ -10487,7 +10598,7 @@
       <c r="B222" s="1">
         <v>0</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="1">
         <v>2</v>
       </c>
       <c r="D222" s="1">
@@ -10511,7 +10622,7 @@
       <c r="J222" s="1">
         <v>0</v>
       </c>
-      <c r="K222" s="3">
+      <c r="K222" s="1">
         <v>1</v>
       </c>
       <c r="L222" s="1">
@@ -10525,7 +10636,7 @@
       <c r="B223" s="1">
         <v>0</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="1">
         <v>3</v>
       </c>
       <c r="D223" s="1">
@@ -10549,7 +10660,7 @@
       <c r="J223" s="1">
         <v>0</v>
       </c>
-      <c r="K223" s="3">
+      <c r="K223" s="1">
         <v>1</v>
       </c>
       <c r="L223" s="1">
@@ -10563,7 +10674,7 @@
       <c r="B224" s="1">
         <v>0</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="1">
         <v>3</v>
       </c>
       <c r="D224" s="1">
@@ -10587,7 +10698,7 @@
       <c r="J224" s="1">
         <v>0</v>
       </c>
-      <c r="K224" s="3">
+      <c r="K224" s="1">
         <v>3</v>
       </c>
       <c r="L224" s="1">
@@ -10601,7 +10712,7 @@
       <c r="B225" s="1">
         <v>0</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="1">
         <v>2</v>
       </c>
       <c r="D225" s="1">
@@ -10625,7 +10736,7 @@
       <c r="J225" s="1">
         <v>0</v>
       </c>
-      <c r="K225" s="3">
+      <c r="K225" s="1">
         <v>0</v>
       </c>
       <c r="L225" s="1">
@@ -10639,7 +10750,7 @@
       <c r="B226" s="1">
         <v>0</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="1">
         <v>2</v>
       </c>
       <c r="D226" s="1">
@@ -10663,7 +10774,7 @@
       <c r="J226" s="1">
         <v>0</v>
       </c>
-      <c r="K226" s="3">
+      <c r="K226" s="1">
         <v>1</v>
       </c>
       <c r="L226" s="1">
@@ -10677,7 +10788,7 @@
       <c r="B227" s="1">
         <v>0</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="1">
         <v>3</v>
       </c>
       <c r="D227" s="1">
@@ -10701,7 +10812,7 @@
       <c r="J227" s="1">
         <v>0</v>
       </c>
-      <c r="K227" s="3">
+      <c r="K227" s="1">
         <v>2</v>
       </c>
       <c r="L227" s="1">
@@ -10715,7 +10826,7 @@
       <c r="B228" s="1">
         <v>0</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="1">
         <v>2</v>
       </c>
       <c r="D228" s="1">
@@ -10739,7 +10850,7 @@
       <c r="J228" s="1">
         <v>0</v>
       </c>
-      <c r="K228" s="3">
+      <c r="K228" s="1">
         <v>3</v>
       </c>
       <c r="L228" s="1">
@@ -10753,7 +10864,7 @@
       <c r="B229" s="1">
         <v>0</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="1">
         <v>3</v>
       </c>
       <c r="D229" s="1">
@@ -10777,7 +10888,7 @@
       <c r="J229" s="1">
         <v>0</v>
       </c>
-      <c r="K229" s="3">
+      <c r="K229" s="1">
         <v>0</v>
       </c>
       <c r="L229" s="1">
@@ -10791,7 +10902,7 @@
       <c r="B230" s="1">
         <v>0</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="1">
         <v>2</v>
       </c>
       <c r="D230" s="1">
@@ -10815,7 +10926,7 @@
       <c r="J230" s="1">
         <v>0</v>
       </c>
-      <c r="K230" s="3">
+      <c r="K230" s="1">
         <v>0</v>
       </c>
       <c r="L230" s="1">
@@ -10829,7 +10940,7 @@
       <c r="B231" s="1">
         <v>0</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="1">
         <v>3</v>
       </c>
       <c r="D231" s="1">
@@ -10853,7 +10964,7 @@
       <c r="J231" s="1">
         <v>0</v>
       </c>
-      <c r="K231" s="3">
+      <c r="K231" s="1">
         <v>1</v>
       </c>
       <c r="L231" s="1">
@@ -10867,7 +10978,7 @@
       <c r="B232" s="1">
         <v>0</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="1">
         <v>3</v>
       </c>
       <c r="D232" s="1">
@@ -10891,7 +11002,7 @@
       <c r="J232" s="1">
         <v>0</v>
       </c>
-      <c r="K232" s="3">
+      <c r="K232" s="1">
         <v>3</v>
       </c>
       <c r="L232" s="1">
@@ -10905,7 +11016,7 @@
       <c r="B233" s="1">
         <v>0</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="1">
         <v>2</v>
       </c>
       <c r="D233" s="1">
@@ -10929,7 +11040,7 @@
       <c r="J233" s="1">
         <v>0</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K233" s="1">
         <v>2</v>
       </c>
       <c r="L233" s="1">
@@ -10943,7 +11054,7 @@
       <c r="B234" s="1">
         <v>0</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="1">
         <v>2</v>
       </c>
       <c r="D234" s="1">
@@ -10967,7 +11078,7 @@
       <c r="J234" s="1">
         <v>0</v>
       </c>
-      <c r="K234" s="3">
+      <c r="K234" s="1">
         <v>1</v>
       </c>
       <c r="L234" s="1">
@@ -10981,7 +11092,7 @@
       <c r="B235" s="1">
         <v>0</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="1">
         <v>3</v>
       </c>
       <c r="D235" s="1">
@@ -11005,7 +11116,7 @@
       <c r="J235" s="1">
         <v>0</v>
       </c>
-      <c r="K235" s="3">
+      <c r="K235" s="1">
         <v>2</v>
       </c>
       <c r="L235" s="1">
@@ -11019,7 +11130,7 @@
       <c r="B236" s="1">
         <v>0</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="1">
         <v>2</v>
       </c>
       <c r="D236" s="1">
@@ -11043,7 +11154,7 @@
       <c r="J236" s="1">
         <v>0</v>
       </c>
-      <c r="K236" s="3">
+      <c r="K236" s="1">
         <v>0</v>
       </c>
       <c r="L236" s="1">
@@ -11057,7 +11168,7 @@
       <c r="B237" s="1">
         <v>0</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="1">
         <v>2</v>
       </c>
       <c r="D237" s="1">
@@ -11081,7 +11192,7 @@
       <c r="J237" s="1">
         <v>0</v>
       </c>
-      <c r="K237" s="3">
+      <c r="K237" s="1">
         <v>3</v>
       </c>
       <c r="L237" s="1">
@@ -11095,7 +11206,7 @@
       <c r="B238" s="1">
         <v>0</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="1">
         <v>3</v>
       </c>
       <c r="D238" s="1">
@@ -11119,7 +11230,7 @@
       <c r="J238" s="1">
         <v>0</v>
       </c>
-      <c r="K238" s="3">
+      <c r="K238" s="1">
         <v>3</v>
       </c>
       <c r="L238" s="1">
@@ -11133,7 +11244,7 @@
       <c r="B239" s="1">
         <v>0</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="1">
         <v>2</v>
       </c>
       <c r="D239" s="1">
@@ -11157,7 +11268,7 @@
       <c r="J239" s="1">
         <v>0</v>
       </c>
-      <c r="K239" s="3">
+      <c r="K239" s="1">
         <v>2</v>
       </c>
       <c r="L239" s="1">
@@ -11171,7 +11282,7 @@
       <c r="B240" s="1">
         <v>0</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="1">
         <v>3</v>
       </c>
       <c r="D240" s="1">
@@ -11195,7 +11306,7 @@
       <c r="J240" s="1">
         <v>0</v>
       </c>
-      <c r="K240" s="3">
+      <c r="K240" s="1">
         <v>1</v>
       </c>
       <c r="L240" s="1">
@@ -11209,7 +11320,7 @@
       <c r="B241" s="1">
         <v>0</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="1">
         <v>3</v>
       </c>
       <c r="D241" s="1">
@@ -11233,7 +11344,7 @@
       <c r="J241" s="1">
         <v>0</v>
       </c>
-      <c r="K241" s="3">
+      <c r="K241" s="1">
         <v>0</v>
       </c>
       <c r="L241" s="1">
@@ -11247,7 +11358,7 @@
       <c r="B242" s="1">
         <v>0</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="1">
         <v>3</v>
       </c>
       <c r="D242" s="1">
@@ -11271,7 +11382,7 @@
       <c r="J242" s="1">
         <v>0</v>
       </c>
-      <c r="K242" s="3">
+      <c r="K242" s="1">
         <v>1</v>
       </c>
       <c r="L242" s="1">
@@ -11285,7 +11396,7 @@
       <c r="B243" s="1">
         <v>0</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="1">
         <v>2</v>
       </c>
       <c r="D243" s="1">
@@ -11309,7 +11420,7 @@
       <c r="J243" s="1">
         <v>0</v>
       </c>
-      <c r="K243" s="3">
+      <c r="K243" s="1">
         <v>1</v>
       </c>
       <c r="L243" s="1">
@@ -11323,7 +11434,7 @@
       <c r="B244" s="1">
         <v>0</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="1">
         <v>3</v>
       </c>
       <c r="D244" s="1">
@@ -11347,7 +11458,7 @@
       <c r="J244" s="1">
         <v>0</v>
       </c>
-      <c r="K244" s="3">
+      <c r="K244" s="1">
         <v>3</v>
       </c>
       <c r="L244" s="1">
@@ -11361,7 +11472,7 @@
       <c r="B245" s="1">
         <v>0</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="1">
         <v>2</v>
       </c>
       <c r="D245" s="1">
@@ -11385,7 +11496,7 @@
       <c r="J245" s="1">
         <v>0</v>
       </c>
-      <c r="K245" s="3">
+      <c r="K245" s="1">
         <v>2</v>
       </c>
       <c r="L245" s="1">
@@ -11399,7 +11510,7 @@
       <c r="B246" s="1">
         <v>0</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="1">
         <v>2</v>
       </c>
       <c r="D246" s="1">
@@ -11423,7 +11534,7 @@
       <c r="J246" s="1">
         <v>0</v>
       </c>
-      <c r="K246" s="3">
+      <c r="K246" s="1">
         <v>3</v>
       </c>
       <c r="L246" s="1">
@@ -11437,7 +11548,7 @@
       <c r="B247" s="1">
         <v>0</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="1">
         <v>3</v>
       </c>
       <c r="D247" s="1">
@@ -11461,7 +11572,7 @@
       <c r="J247" s="1">
         <v>0</v>
       </c>
-      <c r="K247" s="3">
+      <c r="K247" s="1">
         <v>0</v>
       </c>
       <c r="L247" s="1">
@@ -11475,7 +11586,7 @@
       <c r="B248" s="1">
         <v>0</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="1">
         <v>2</v>
       </c>
       <c r="D248" s="1">
@@ -11499,7 +11610,7 @@
       <c r="J248" s="1">
         <v>0</v>
       </c>
-      <c r="K248" s="3">
+      <c r="K248" s="1">
         <v>0</v>
       </c>
       <c r="L248" s="1">
@@ -11513,7 +11624,7 @@
       <c r="B249" s="1">
         <v>0</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="1">
         <v>3</v>
       </c>
       <c r="D249" s="1">
@@ -11537,7 +11648,7 @@
       <c r="J249" s="1">
         <v>0</v>
       </c>
-      <c r="K249" s="3">
+      <c r="K249" s="1">
         <v>2</v>
       </c>
       <c r="L249" s="1">
@@ -11551,7 +11662,7 @@
       <c r="B250" s="1">
         <v>0</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="1">
         <v>3</v>
       </c>
       <c r="D250" s="1">
@@ -11575,7 +11686,7 @@
       <c r="J250" s="1">
         <v>0</v>
       </c>
-      <c r="K250" s="3">
+      <c r="K250" s="1">
         <v>3</v>
       </c>
       <c r="L250" s="1">
@@ -11589,7 +11700,7 @@
       <c r="B251" s="1">
         <v>0</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="1">
         <v>2</v>
       </c>
       <c r="D251" s="1">
@@ -11613,7 +11724,7 @@
       <c r="J251" s="1">
         <v>0</v>
       </c>
-      <c r="K251" s="3">
+      <c r="K251" s="1">
         <v>2</v>
       </c>
       <c r="L251" s="1">
@@ -11627,7 +11738,7 @@
       <c r="B252" s="1">
         <v>0</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="1">
         <v>3</v>
       </c>
       <c r="D252" s="1">
@@ -11651,7 +11762,7 @@
       <c r="J252" s="1">
         <v>0</v>
       </c>
-      <c r="K252" s="3">
+      <c r="K252" s="1">
         <v>2</v>
       </c>
       <c r="L252" s="1">
@@ -11665,7 +11776,7 @@
       <c r="B253" s="1">
         <v>0</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="1">
         <v>2</v>
       </c>
       <c r="D253" s="1">
@@ -11689,7 +11800,7 @@
       <c r="J253" s="1">
         <v>0</v>
       </c>
-      <c r="K253" s="3">
+      <c r="K253" s="1">
         <v>0</v>
       </c>
       <c r="L253" s="1">
@@ -11703,7 +11814,7 @@
       <c r="B254" s="1">
         <v>0</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="1">
         <v>3</v>
       </c>
       <c r="D254" s="1">
@@ -11727,7 +11838,7 @@
       <c r="J254" s="1">
         <v>0</v>
       </c>
-      <c r="K254" s="3">
+      <c r="K254" s="1">
         <v>0</v>
       </c>
       <c r="L254" s="1">
@@ -11741,7 +11852,7 @@
       <c r="B255" s="1">
         <v>0</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="1">
         <v>2</v>
       </c>
       <c r="D255" s="1">
@@ -11765,7 +11876,7 @@
       <c r="J255" s="1">
         <v>0</v>
       </c>
-      <c r="K255" s="3">
+      <c r="K255" s="1">
         <v>1</v>
       </c>
       <c r="L255" s="1">
@@ -11779,7 +11890,7 @@
       <c r="B256" s="1">
         <v>0</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="1">
         <v>3</v>
       </c>
       <c r="D256" s="1">
@@ -11803,7 +11914,7 @@
       <c r="J256" s="1">
         <v>0</v>
       </c>
-      <c r="K256" s="3">
+      <c r="K256" s="1">
         <v>1</v>
       </c>
       <c r="L256" s="1">
@@ -11817,7 +11928,7 @@
       <c r="B257" s="1">
         <v>0</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="1">
         <v>2</v>
       </c>
       <c r="D257" s="1">
@@ -11841,7 +11952,7 @@
       <c r="J257" s="1">
         <v>0</v>
       </c>
-      <c r="K257" s="3">
+      <c r="K257" s="1">
         <v>3</v>
       </c>
       <c r="L257" s="1">
@@ -11855,7 +11966,7 @@
       <c r="B258" s="1">
         <v>0</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="1">
         <v>2</v>
       </c>
       <c r="D258" s="1">
@@ -11879,7 +11990,7 @@
       <c r="J258" s="1">
         <v>0</v>
       </c>
-      <c r="K258" s="3">
+      <c r="K258" s="1">
         <v>0</v>
       </c>
       <c r="L258" s="1">
@@ -11893,7 +12004,7 @@
       <c r="B259" s="1">
         <v>0</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="1">
         <v>2</v>
       </c>
       <c r="D259" s="1">
@@ -11917,7 +12028,7 @@
       <c r="J259" s="1">
         <v>0</v>
       </c>
-      <c r="K259" s="3">
+      <c r="K259" s="1">
         <v>3</v>
       </c>
       <c r="L259" s="1">
@@ -11931,7 +12042,7 @@
       <c r="B260" s="1">
         <v>0</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="1">
         <v>2</v>
       </c>
       <c r="D260" s="1">
@@ -11955,7 +12066,7 @@
       <c r="J260" s="1">
         <v>0</v>
       </c>
-      <c r="K260" s="3">
+      <c r="K260" s="1">
         <v>2</v>
       </c>
       <c r="L260" s="1">
@@ -11969,7 +12080,7 @@
       <c r="B261" s="1">
         <v>0</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="1">
         <v>3</v>
       </c>
       <c r="D261" s="1">
@@ -11993,7 +12104,7 @@
       <c r="J261" s="1">
         <v>0</v>
       </c>
-      <c r="K261" s="3">
+      <c r="K261" s="1">
         <v>3</v>
       </c>
       <c r="L261" s="1">
@@ -12007,7 +12118,7 @@
       <c r="B262" s="1">
         <v>0</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="1">
         <v>2</v>
       </c>
       <c r="D262" s="1">
@@ -12031,7 +12142,7 @@
       <c r="J262" s="1">
         <v>0</v>
       </c>
-      <c r="K262" s="3">
+      <c r="K262" s="1">
         <v>1</v>
       </c>
       <c r="L262" s="1">
@@ -12045,7 +12156,7 @@
       <c r="B263" s="1">
         <v>0</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="1">
         <v>3</v>
       </c>
       <c r="D263" s="1">
@@ -12069,7 +12180,7 @@
       <c r="J263" s="1">
         <v>0</v>
       </c>
-      <c r="K263" s="3">
+      <c r="K263" s="1">
         <v>1</v>
       </c>
       <c r="L263" s="1">
@@ -12083,7 +12194,7 @@
       <c r="B264" s="1">
         <v>0</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="1">
         <v>3</v>
       </c>
       <c r="D264" s="1">
@@ -12107,7 +12218,7 @@
       <c r="J264" s="1">
         <v>0</v>
       </c>
-      <c r="K264" s="3">
+      <c r="K264" s="1">
         <v>2</v>
       </c>
       <c r="L264" s="1">
@@ -12121,7 +12232,7 @@
       <c r="B265" s="1">
         <v>0</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="1">
         <v>3</v>
       </c>
       <c r="D265" s="1">
@@ -12145,7 +12256,7 @@
       <c r="J265" s="1">
         <v>0</v>
       </c>
-      <c r="K265" s="3">
+      <c r="K265" s="1">
         <v>0</v>
       </c>
       <c r="L265" s="1">
@@ -12159,7 +12270,7 @@
       <c r="B266" s="1">
         <v>0</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="1">
         <v>2</v>
       </c>
       <c r="D266" s="1">
@@ -12183,7 +12294,7 @@
       <c r="J266" s="1">
         <v>0</v>
       </c>
-      <c r="K266" s="3">
+      <c r="K266" s="1">
         <v>0</v>
       </c>
       <c r="L266" s="1">
@@ -12197,7 +12308,7 @@
       <c r="B267" s="1">
         <v>0</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="1">
         <v>3</v>
       </c>
       <c r="D267" s="1">
@@ -12221,7 +12332,7 @@
       <c r="J267" s="1">
         <v>0</v>
       </c>
-      <c r="K267" s="3">
+      <c r="K267" s="1">
         <v>1</v>
       </c>
       <c r="L267" s="1">
@@ -12235,7 +12346,7 @@
       <c r="B268" s="1">
         <v>0</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="1">
         <v>3</v>
       </c>
       <c r="D268" s="1">
@@ -12259,7 +12370,7 @@
       <c r="J268" s="1">
         <v>0</v>
       </c>
-      <c r="K268" s="3">
+      <c r="K268" s="1">
         <v>0</v>
       </c>
       <c r="L268" s="1">
@@ -12273,7 +12384,7 @@
       <c r="B269" s="1">
         <v>0</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="1">
         <v>2</v>
       </c>
       <c r="D269" s="1">
@@ -12297,7 +12408,7 @@
       <c r="J269" s="1">
         <v>0</v>
       </c>
-      <c r="K269" s="3">
+      <c r="K269" s="1">
         <v>3</v>
       </c>
       <c r="L269" s="1">
@@ -12311,7 +12422,7 @@
       <c r="B270" s="1">
         <v>0</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="1">
         <v>2</v>
       </c>
       <c r="D270" s="1">
@@ -12335,7 +12446,7 @@
       <c r="J270" s="1">
         <v>0</v>
       </c>
-      <c r="K270" s="3">
+      <c r="K270" s="1">
         <v>1</v>
       </c>
       <c r="L270" s="1">
@@ -12349,7 +12460,7 @@
       <c r="B271" s="1">
         <v>0</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="1">
         <v>2</v>
       </c>
       <c r="D271" s="1">
@@ -12373,7 +12484,7 @@
       <c r="J271" s="1">
         <v>0</v>
       </c>
-      <c r="K271" s="3">
+      <c r="K271" s="1">
         <v>2</v>
       </c>
       <c r="L271" s="1">
@@ -12387,7 +12498,7 @@
       <c r="B272" s="1">
         <v>0</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="1">
         <v>3</v>
       </c>
       <c r="D272" s="1">
@@ -12411,7 +12522,7 @@
       <c r="J272" s="1">
         <v>0</v>
       </c>
-      <c r="K272" s="3">
+      <c r="K272" s="1">
         <v>2</v>
       </c>
       <c r="L272" s="1">
@@ -12425,7 +12536,7 @@
       <c r="B273" s="1">
         <v>0</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="1">
         <v>3</v>
       </c>
       <c r="D273" s="1">
@@ -12449,7 +12560,7 @@
       <c r="J273" s="1">
         <v>0</v>
       </c>
-      <c r="K273" s="3">
+      <c r="K273" s="1">
         <v>3</v>
       </c>
       <c r="L273" s="1">
@@ -12463,7 +12574,7 @@
       <c r="B274" s="1">
         <v>0</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="1">
         <v>2</v>
       </c>
       <c r="D274" s="1">
@@ -12487,7 +12598,7 @@
       <c r="J274" s="1">
         <v>0</v>
       </c>
-      <c r="K274" s="3">
+      <c r="K274" s="1">
         <v>0</v>
       </c>
       <c r="L274" s="1">
@@ -12501,7 +12612,7 @@
       <c r="B275" s="1">
         <v>0</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="1">
         <v>2</v>
       </c>
       <c r="D275" s="1">
@@ -12525,7 +12636,7 @@
       <c r="J275" s="1">
         <v>0</v>
       </c>
-      <c r="K275" s="3">
+      <c r="K275" s="1">
         <v>1</v>
       </c>
       <c r="L275" s="1">
@@ -12539,7 +12650,7 @@
       <c r="B276" s="1">
         <v>0</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="1">
         <v>3</v>
       </c>
       <c r="D276" s="1">
@@ -12563,7 +12674,7 @@
       <c r="J276" s="1">
         <v>0</v>
       </c>
-      <c r="K276" s="3">
+      <c r="K276" s="1">
         <v>2</v>
       </c>
       <c r="L276" s="1">
@@ -12577,7 +12688,7 @@
       <c r="B277" s="1">
         <v>0</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="1">
         <v>3</v>
       </c>
       <c r="D277" s="1">
@@ -12601,7 +12712,7 @@
       <c r="J277" s="1">
         <v>0</v>
       </c>
-      <c r="K277" s="3">
+      <c r="K277" s="1">
         <v>1</v>
       </c>
       <c r="L277" s="1">
@@ -12615,7 +12726,7 @@
       <c r="B278" s="1">
         <v>0</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="1">
         <v>2</v>
       </c>
       <c r="D278" s="1">
@@ -12639,7 +12750,7 @@
       <c r="J278" s="1">
         <v>0</v>
       </c>
-      <c r="K278" s="3">
+      <c r="K278" s="1">
         <v>3</v>
       </c>
       <c r="L278" s="1">
@@ -12653,7 +12764,7 @@
       <c r="B279" s="1">
         <v>0</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="1">
         <v>3</v>
       </c>
       <c r="D279" s="1">
@@ -12677,7 +12788,7 @@
       <c r="J279" s="1">
         <v>0</v>
       </c>
-      <c r="K279" s="3">
+      <c r="K279" s="1">
         <v>3</v>
       </c>
       <c r="L279" s="1">
@@ -12691,7 +12802,7 @@
       <c r="B280" s="1">
         <v>0</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="1">
         <v>2</v>
       </c>
       <c r="D280" s="1">
@@ -12715,7 +12826,7 @@
       <c r="J280" s="1">
         <v>0</v>
       </c>
-      <c r="K280" s="3">
+      <c r="K280" s="1">
         <v>2</v>
       </c>
       <c r="L280" s="1">
@@ -12729,7 +12840,7 @@
       <c r="B281" s="1">
         <v>0</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="1">
         <v>3</v>
       </c>
       <c r="D281" s="1">
@@ -12753,7 +12864,7 @@
       <c r="J281" s="1">
         <v>0</v>
       </c>
-      <c r="K281" s="3">
+      <c r="K281" s="1">
         <v>0</v>
       </c>
       <c r="L281" s="1">
@@ -12767,7 +12878,7 @@
       <c r="B282" s="1">
         <v>0</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="1">
         <v>3</v>
       </c>
       <c r="D282" s="1">
@@ -12791,7 +12902,7 @@
       <c r="J282" s="1">
         <v>0</v>
       </c>
-      <c r="K282" s="3">
+      <c r="K282" s="1">
         <v>0</v>
       </c>
       <c r="L282" s="1">
@@ -12805,7 +12916,7 @@
       <c r="B283" s="1">
         <v>0</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="1">
         <v>3</v>
       </c>
       <c r="D283" s="1">
@@ -12829,7 +12940,7 @@
       <c r="J283" s="1">
         <v>0</v>
       </c>
-      <c r="K283" s="3">
+      <c r="K283" s="1">
         <v>2</v>
       </c>
       <c r="L283" s="1">
@@ -12843,7 +12954,7 @@
       <c r="B284" s="1">
         <v>0</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="1">
         <v>2</v>
       </c>
       <c r="D284" s="1">
@@ -12867,7 +12978,7 @@
       <c r="J284" s="1">
         <v>0</v>
       </c>
-      <c r="K284" s="3">
+      <c r="K284" s="1">
         <v>3</v>
       </c>
       <c r="L284" s="1">
@@ -12881,7 +12992,7 @@
       <c r="B285" s="1">
         <v>0</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="1">
         <v>3</v>
       </c>
       <c r="D285" s="1">
@@ -12905,7 +13016,7 @@
       <c r="J285" s="1">
         <v>0</v>
       </c>
-      <c r="K285" s="3">
+      <c r="K285" s="1">
         <v>3</v>
       </c>
       <c r="L285" s="1">
@@ -12919,7 +13030,7 @@
       <c r="B286" s="1">
         <v>0</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="1">
         <v>2</v>
       </c>
       <c r="D286" s="1">
@@ -12943,7 +13054,7 @@
       <c r="J286" s="1">
         <v>0</v>
       </c>
-      <c r="K286" s="3">
+      <c r="K286" s="1">
         <v>2</v>
       </c>
       <c r="L286" s="1">
@@ -12957,7 +13068,7 @@
       <c r="B287" s="1">
         <v>0</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="1">
         <v>2</v>
       </c>
       <c r="D287" s="1">
@@ -12981,7 +13092,7 @@
       <c r="J287" s="1">
         <v>0</v>
       </c>
-      <c r="K287" s="3">
+      <c r="K287" s="1">
         <v>0</v>
       </c>
       <c r="L287" s="1">
@@ -12995,7 +13106,7 @@
       <c r="B288" s="1">
         <v>0</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="1">
         <v>3</v>
       </c>
       <c r="D288" s="1">
@@ -13019,7 +13130,7 @@
       <c r="J288" s="1">
         <v>0</v>
       </c>
-      <c r="K288" s="3">
+      <c r="K288" s="1">
         <v>1</v>
       </c>
       <c r="L288" s="1">
@@ -13033,7 +13144,7 @@
       <c r="B289" s="1">
         <v>0</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="1">
         <v>2</v>
       </c>
       <c r="D289" s="1">
@@ -13057,7 +13168,7 @@
       <c r="J289" s="1">
         <v>0</v>
       </c>
-      <c r="K289" s="3">
+      <c r="K289" s="1">
         <v>1</v>
       </c>
       <c r="L289" s="1">
@@ -13071,7 +13182,7 @@
       <c r="B290" s="1">
         <v>0</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="1">
         <v>2</v>
       </c>
       <c r="D290" s="1">
@@ -13095,7 +13206,7 @@
       <c r="J290" s="1">
         <v>0</v>
       </c>
-      <c r="K290" s="3">
+      <c r="K290" s="1">
         <v>2</v>
       </c>
       <c r="L290" s="1">
@@ -13109,7 +13220,7 @@
       <c r="B291" s="1">
         <v>0</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="1">
         <v>2</v>
       </c>
       <c r="D291" s="1">
@@ -13133,7 +13244,7 @@
       <c r="J291" s="1">
         <v>0</v>
       </c>
-      <c r="K291" s="3">
+      <c r="K291" s="1">
         <v>0</v>
       </c>
       <c r="L291" s="1">
@@ -13147,7 +13258,7 @@
       <c r="B292" s="1">
         <v>0</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="1">
         <v>2</v>
       </c>
       <c r="D292" s="1">
@@ -13171,7 +13282,7 @@
       <c r="J292" s="1">
         <v>0</v>
       </c>
-      <c r="K292" s="3">
+      <c r="K292" s="1">
         <v>3</v>
       </c>
       <c r="L292" s="1">
@@ -13185,7 +13296,7 @@
       <c r="B293" s="1">
         <v>0</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="1">
         <v>2</v>
       </c>
       <c r="D293" s="1">
@@ -13209,7 +13320,7 @@
       <c r="J293" s="1">
         <v>0</v>
       </c>
-      <c r="K293" s="3">
+      <c r="K293" s="1">
         <v>1</v>
       </c>
       <c r="L293" s="1">
@@ -13223,7 +13334,7 @@
       <c r="B294" s="1">
         <v>0</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="1">
         <v>3</v>
       </c>
       <c r="D294" s="1">
@@ -13247,7 +13358,7 @@
       <c r="J294" s="1">
         <v>0</v>
       </c>
-      <c r="K294" s="3">
+      <c r="K294" s="1">
         <v>2</v>
       </c>
       <c r="L294" s="1">
@@ -13261,7 +13372,7 @@
       <c r="B295" s="1">
         <v>0</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="1">
         <v>3</v>
       </c>
       <c r="D295" s="1">
@@ -13285,7 +13396,7 @@
       <c r="J295" s="1">
         <v>0</v>
       </c>
-      <c r="K295" s="3">
+      <c r="K295" s="1">
         <v>3</v>
       </c>
       <c r="L295" s="1">
@@ -13299,7 +13410,7 @@
       <c r="B296" s="1">
         <v>0</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="1">
         <v>3</v>
       </c>
       <c r="D296" s="1">
@@ -13323,7 +13434,7 @@
       <c r="J296" s="1">
         <v>0</v>
       </c>
-      <c r="K296" s="3">
+      <c r="K296" s="1">
         <v>1</v>
       </c>
       <c r="L296" s="1">
@@ -13337,7 +13448,7 @@
       <c r="B297" s="1">
         <v>0</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="1">
         <v>3</v>
       </c>
       <c r="D297" s="1">
@@ -13361,7 +13472,7 @@
       <c r="J297" s="1">
         <v>0</v>
       </c>
-      <c r="K297" s="3">
+      <c r="K297" s="1">
         <v>0</v>
       </c>
       <c r="L297" s="1">
@@ -13375,7 +13486,7 @@
       <c r="B298" s="1">
         <v>0</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="1">
         <v>2</v>
       </c>
       <c r="D298" s="1">
@@ -13399,7 +13510,7 @@
       <c r="J298" s="1">
         <v>0</v>
       </c>
-      <c r="K298" s="3">
+      <c r="K298" s="1">
         <v>2</v>
       </c>
       <c r="L298" s="1">
@@ -13413,7 +13524,7 @@
       <c r="B299" s="1">
         <v>0</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="1">
         <v>3</v>
       </c>
       <c r="D299" s="1">
@@ -13437,7 +13548,7 @@
       <c r="J299" s="1">
         <v>0</v>
       </c>
-      <c r="K299" s="3">
+      <c r="K299" s="1">
         <v>3</v>
       </c>
       <c r="L299" s="1">
@@ -13451,7 +13562,7 @@
       <c r="B300" s="1">
         <v>0</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300" s="1">
         <v>2</v>
       </c>
       <c r="D300" s="1">
@@ -13475,7 +13586,7 @@
       <c r="J300" s="1">
         <v>0</v>
       </c>
-      <c r="K300" s="3">
+      <c r="K300" s="1">
         <v>1</v>
       </c>
       <c r="L300" s="1">
@@ -13489,7 +13600,7 @@
       <c r="B301" s="1">
         <v>0</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="1">
         <v>2</v>
       </c>
       <c r="D301" s="1">
@@ -13513,7 +13624,7 @@
       <c r="J301" s="1">
         <v>0</v>
       </c>
-      <c r="K301" s="3">
+      <c r="K301" s="1">
         <v>3</v>
       </c>
       <c r="L301" s="1">
@@ -13527,7 +13638,7 @@
       <c r="B302" s="1">
         <v>0</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="1">
         <v>3</v>
       </c>
       <c r="D302" s="1">
@@ -13551,7 +13662,7 @@
       <c r="J302" s="1">
         <v>0</v>
       </c>
-      <c r="K302" s="3">
+      <c r="K302" s="1">
         <v>1</v>
       </c>
       <c r="L302" s="1">
@@ -13565,7 +13676,7 @@
       <c r="B303" s="1">
         <v>0</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="1">
         <v>3</v>
       </c>
       <c r="D303" s="1">
@@ -13589,7 +13700,7 @@
       <c r="J303" s="1">
         <v>0</v>
       </c>
-      <c r="K303" s="3">
+      <c r="K303" s="1">
         <v>0</v>
       </c>
       <c r="L303" s="1">
@@ -13603,7 +13714,7 @@
       <c r="B304" s="1">
         <v>0</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="1">
         <v>2</v>
       </c>
       <c r="D304" s="1">
@@ -13627,7 +13738,7 @@
       <c r="J304" s="1">
         <v>0</v>
       </c>
-      <c r="K304" s="3">
+      <c r="K304" s="1">
         <v>0</v>
       </c>
       <c r="L304" s="1">
@@ -13641,7 +13752,7 @@
       <c r="B305" s="1">
         <v>0</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="1">
         <v>3</v>
       </c>
       <c r="D305" s="1">
@@ -13665,7 +13776,7 @@
       <c r="J305" s="1">
         <v>0</v>
       </c>
-      <c r="K305" s="3">
+      <c r="K305" s="1">
         <v>2</v>
       </c>
       <c r="L305" s="1">
@@ -13679,7 +13790,7 @@
       <c r="B306" s="1">
         <v>0</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="1">
         <v>3</v>
       </c>
       <c r="D306" s="1">
@@ -13703,7 +13814,7 @@
       <c r="J306" s="1">
         <v>0</v>
       </c>
-      <c r="K306" s="3">
+      <c r="K306" s="1">
         <v>2</v>
       </c>
       <c r="L306" s="1">
@@ -13717,7 +13828,7 @@
       <c r="B307" s="1">
         <v>0</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="1">
         <v>3</v>
       </c>
       <c r="D307" s="1">
@@ -13741,7 +13852,7 @@
       <c r="J307" s="1">
         <v>0</v>
       </c>
-      <c r="K307" s="3">
+      <c r="K307" s="1">
         <v>3</v>
       </c>
       <c r="L307" s="1">
@@ -13755,7 +13866,7 @@
       <c r="B308" s="1">
         <v>0</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="1">
         <v>2</v>
       </c>
       <c r="D308" s="1">
@@ -13779,7 +13890,7 @@
       <c r="J308" s="1">
         <v>0</v>
       </c>
-      <c r="K308" s="3">
+      <c r="K308" s="1">
         <v>3</v>
       </c>
       <c r="L308" s="1">
@@ -13793,7 +13904,7 @@
       <c r="B309" s="1">
         <v>0</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="1">
         <v>2</v>
       </c>
       <c r="D309" s="1">
@@ -13817,7 +13928,7 @@
       <c r="J309" s="1">
         <v>0</v>
       </c>
-      <c r="K309" s="3">
+      <c r="K309" s="1">
         <v>2</v>
       </c>
       <c r="L309" s="1">
@@ -13831,7 +13942,7 @@
       <c r="B310" s="1">
         <v>0</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="1">
         <v>2</v>
       </c>
       <c r="D310" s="1">
@@ -13855,7 +13966,7 @@
       <c r="J310" s="1">
         <v>0</v>
       </c>
-      <c r="K310" s="3">
+      <c r="K310" s="1">
         <v>0</v>
       </c>
       <c r="L310" s="1">
@@ -13869,7 +13980,7 @@
       <c r="B311" s="1">
         <v>0</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="1">
         <v>2</v>
       </c>
       <c r="D311" s="1">
@@ -13893,7 +14004,7 @@
       <c r="J311" s="1">
         <v>0</v>
       </c>
-      <c r="K311" s="3">
+      <c r="K311" s="1">
         <v>1</v>
       </c>
       <c r="L311" s="1">
@@ -13907,7 +14018,7 @@
       <c r="B312" s="1">
         <v>0</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="1">
         <v>3</v>
       </c>
       <c r="D312" s="1">
@@ -13931,7 +14042,7 @@
       <c r="J312" s="1">
         <v>0</v>
       </c>
-      <c r="K312" s="3">
+      <c r="K312" s="1">
         <v>1</v>
       </c>
       <c r="L312" s="1">
@@ -13945,7 +14056,7 @@
       <c r="B313" s="1">
         <v>0</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="1">
         <v>3</v>
       </c>
       <c r="D313" s="1">
@@ -13969,7 +14080,7 @@
       <c r="J313" s="1">
         <v>0</v>
       </c>
-      <c r="K313" s="3">
+      <c r="K313" s="1">
         <v>0</v>
       </c>
       <c r="L313" s="1">
@@ -13983,7 +14094,7 @@
       <c r="B314" s="1">
         <v>0</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="1">
         <v>2</v>
       </c>
       <c r="D314" s="1">
@@ -14007,7 +14118,7 @@
       <c r="J314" s="1">
         <v>0</v>
       </c>
-      <c r="K314" s="3">
+      <c r="K314" s="1">
         <v>3</v>
       </c>
       <c r="L314" s="1">
@@ -14021,7 +14132,7 @@
       <c r="B315" s="1">
         <v>0</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="1">
         <v>2</v>
       </c>
       <c r="D315" s="1">
@@ -14045,7 +14156,7 @@
       <c r="J315" s="1">
         <v>0</v>
       </c>
-      <c r="K315" s="3">
+      <c r="K315" s="1">
         <v>1</v>
       </c>
       <c r="L315" s="1">
@@ -14059,7 +14170,7 @@
       <c r="B316" s="1">
         <v>0</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="1">
         <v>3</v>
       </c>
       <c r="D316" s="1">
@@ -14083,7 +14194,7 @@
       <c r="J316" s="1">
         <v>0</v>
       </c>
-      <c r="K316" s="3">
+      <c r="K316" s="1">
         <v>3</v>
       </c>
       <c r="L316" s="1">
@@ -14097,7 +14208,7 @@
       <c r="B317" s="1">
         <v>0</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="1">
         <v>2</v>
       </c>
       <c r="D317" s="1">
@@ -14121,7 +14232,7 @@
       <c r="J317" s="1">
         <v>0</v>
       </c>
-      <c r="K317" s="3">
+      <c r="K317" s="1">
         <v>0</v>
       </c>
       <c r="L317" s="1">
@@ -14135,7 +14246,7 @@
       <c r="B318" s="1">
         <v>0</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="1">
         <v>3</v>
       </c>
       <c r="D318" s="1">
@@ -14159,7 +14270,7 @@
       <c r="J318" s="1">
         <v>0</v>
       </c>
-      <c r="K318" s="3">
+      <c r="K318" s="1">
         <v>2</v>
       </c>
       <c r="L318" s="1">
@@ -14173,7 +14284,7 @@
       <c r="B319" s="1">
         <v>0</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="1">
         <v>3</v>
       </c>
       <c r="D319" s="1">
@@ -14197,7 +14308,7 @@
       <c r="J319" s="1">
         <v>0</v>
       </c>
-      <c r="K319" s="3">
+      <c r="K319" s="1">
         <v>1</v>
       </c>
       <c r="L319" s="1">
@@ -14211,7 +14322,7 @@
       <c r="B320" s="1">
         <v>0</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="1">
         <v>3</v>
       </c>
       <c r="D320" s="1">
@@ -14235,7 +14346,7 @@
       <c r="J320" s="1">
         <v>0</v>
       </c>
-      <c r="K320" s="3">
+      <c r="K320" s="1">
         <v>0</v>
       </c>
       <c r="L320" s="1">
@@ -14249,7 +14360,7 @@
       <c r="B321" s="1">
         <v>0</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="1">
         <v>2</v>
       </c>
       <c r="D321" s="1">
@@ -14273,7 +14384,7 @@
       <c r="J321" s="1">
         <v>0</v>
       </c>
-      <c r="K321" s="3">
+      <c r="K321" s="1">
         <v>2</v>
       </c>
       <c r="L321" s="1">

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -856,194 +856,74 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/155826a8f07387bf/GE_Drive/PhD/PhD Projects/Project 1 Vibration Targeting/elbow-vibration-targeting/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_2BA4097FF1ED5E123CC767E2BF96907EA4E8F3D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8101016A-B8D7-4934-9669-57D2FCE6E032}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Testing" sheetId="2" r:id="rId2"/>
-    <sheet name="Practice" sheetId="3" r:id="rId3"/>
-    <sheet name="main" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Template"/>
+    <sheet r:id="rId2" sheetId="2" name="Testing"/>
+    <sheet r:id="rId3" sheetId="3" name="Practice"/>
+    <sheet r:id="rId4" sheetId="4" name="main"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>trial_num</t>
   </si>
@@ -108,15 +102,13 @@
   <si>
     <t>&amp;#10;No Vibration = 0&amp;#10;Biceps = 1&amp;#10;Triceps = 2&amp;#10;Both = 3</t>
   </si>
-  <si>
-    <t>Vibration</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +124,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -145,12 +144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
+        <fgColor rgb="FFdeebf7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFfff2cc"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,31 +170,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDEEBF7"/>
+        <color rgb="FFdeebf7"/>
       </left>
       <right style="thin">
-        <color rgb="FFDEEBF7"/>
+        <color rgb="FFdeebf7"/>
       </right>
       <top style="thin">
-        <color rgb="FFDEEBF7"/>
+        <color rgb="FFdeebf7"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFDEEBF7"/>
+        <color rgb="FFdeebf7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFF2CC"/>
+        <color rgb="FFfff2cc"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFF2CC"/>
+        <color rgb="FFfff2cc"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFF2CC"/>
+        <color rgb="FFfff2cc"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFF2CC"/>
+        <color rgb="FFfff2cc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -204,58 +203,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,10 +262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -307,71 +303,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,7 +395,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -422,11 +418,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -435,13 +431,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -451,7 +447,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -460,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,10 +473,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -545,7 +541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -555,208 +551,221 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,33 +773,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -866,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -880,7 +887,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -894,7 +901,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -908,7 +915,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -922,7 +929,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -936,7 +943,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -950,7 +957,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -964,7 +971,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -978,7 +985,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -992,7 +999,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1006,7 +1013,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1020,7 +1027,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1034,7 +1041,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1048,7 +1055,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1062,7 +1069,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1076,7 +1083,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1090,7 +1097,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1104,7 +1111,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1118,7 +1125,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1132,7 +1139,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1146,7 +1153,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1160,7 +1167,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1174,7 +1181,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1194,33 +1201,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,11 +1259,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1942,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2024,70 +2029,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2118,14 +2122,14 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2156,14 +2160,14 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2194,14 +2198,14 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2232,14 +2236,14 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2270,14 +2274,14 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2308,14 +2312,14 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2346,14 +2350,14 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2384,14 +2388,14 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2422,14 +2426,14 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2460,14 +2464,14 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2498,14 +2502,14 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2536,14 +2540,14 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2574,14 +2578,14 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>3</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2612,14 +2616,14 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2650,14 +2654,14 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2688,14 +2692,14 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2726,14 +2730,14 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2764,14 +2768,14 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2802,14 +2806,14 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2840,14 +2844,14 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2878,14 +2882,14 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>3</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2916,14 +2920,14 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>2</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2954,14 +2958,14 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2992,14 +2996,14 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>3</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3030,14 +3034,14 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3068,14 +3072,14 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3106,14 +3110,14 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3144,14 +3148,14 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>2</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3182,14 +3186,14 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3220,14 +3224,14 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>3</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3258,14 +3262,14 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>1</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3296,14 +3300,14 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3334,14 +3338,14 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>2</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3372,14 +3376,14 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3410,14 +3414,14 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3448,14 +3452,14 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>3</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3486,14 +3490,14 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3524,14 +3528,14 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3562,14 +3566,14 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>2</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3600,14 +3604,14 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3638,14 +3642,14 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3676,14 +3680,14 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3714,14 +3718,14 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3752,14 +3756,14 @@
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3790,14 +3794,14 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3828,14 +3832,14 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>0</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3866,14 +3870,14 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3904,14 +3908,14 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3942,14 +3946,14 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3980,14 +3984,14 @@
       <c r="J51" s="1">
         <v>0</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4018,14 +4022,14 @@
       <c r="J52" s="1">
         <v>0</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="4">
         <v>3</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4056,14 +4060,14 @@
       <c r="J53" s="1">
         <v>0</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="4">
         <v>2</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4094,14 +4098,14 @@
       <c r="J54" s="1">
         <v>0</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="4">
         <v>1</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4132,14 +4136,14 @@
       <c r="J55" s="1">
         <v>0</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4170,14 +4174,14 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4208,14 +4212,14 @@
       <c r="J57" s="1">
         <v>0</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4246,14 +4250,14 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="4">
         <v>2</v>
       </c>
       <c r="L58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4284,14 +4288,14 @@
       <c r="J59" s="1">
         <v>0</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="4">
         <v>0</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4322,14 +4326,14 @@
       <c r="J60" s="1">
         <v>0</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="4">
         <v>3</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4360,14 +4364,14 @@
       <c r="J61" s="1">
         <v>0</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="4">
         <v>0</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4398,14 +4402,14 @@
       <c r="J62" s="1">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="4">
         <v>1</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4436,14 +4440,14 @@
       <c r="J63" s="1">
         <v>0</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="4">
         <v>0</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4474,14 +4478,14 @@
       <c r="J64" s="1">
         <v>0</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="4">
         <v>0</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4512,14 +4516,14 @@
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="4">
         <v>0</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4550,14 +4554,14 @@
       <c r="J66" s="1">
         <v>0</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="4">
         <v>3</v>
       </c>
       <c r="L66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4588,14 +4592,14 @@
       <c r="J67" s="1">
         <v>0</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="4">
         <v>2</v>
       </c>
       <c r="L67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4626,14 +4630,14 @@
       <c r="J68" s="1">
         <v>0</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="4">
         <v>1</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4664,14 +4668,14 @@
       <c r="J69" s="1">
         <v>0</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4702,14 +4706,14 @@
       <c r="J70" s="1">
         <v>0</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4740,14 +4744,14 @@
       <c r="J71" s="1">
         <v>0</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="4">
         <v>0</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4778,14 +4782,14 @@
       <c r="J72" s="1">
         <v>0</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="4">
         <v>3</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4816,14 +4820,14 @@
       <c r="J73" s="1">
         <v>0</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="4">
         <v>1</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4854,14 +4858,14 @@
       <c r="J74" s="1">
         <v>0</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="4">
         <v>2</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4892,14 +4896,14 @@
       <c r="J75" s="1">
         <v>0</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="4">
         <v>0</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4930,14 +4934,14 @@
       <c r="J76" s="1">
         <v>0</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="4">
         <v>0</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4968,14 +4972,14 @@
       <c r="J77" s="1">
         <v>0</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5006,14 +5010,14 @@
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5044,14 +5048,14 @@
       <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="4">
         <v>3</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5082,14 +5086,14 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="4">
         <v>1</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5120,14 +5124,14 @@
       <c r="J81" s="1">
         <v>0</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="4">
         <v>2</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5158,14 +5162,14 @@
       <c r="J82" s="1">
         <v>0</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5196,14 +5200,14 @@
       <c r="J83" s="1">
         <v>0</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="4">
         <v>0</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5234,14 +5238,14 @@
       <c r="J84" s="1">
         <v>0</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="4">
         <v>0</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5272,14 +5276,14 @@
       <c r="J85" s="1">
         <v>0</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="4">
         <v>0</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5310,14 +5314,14 @@
       <c r="J86" s="1">
         <v>0</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5348,14 +5352,14 @@
       <c r="J87" s="1">
         <v>0</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5386,14 +5390,14 @@
       <c r="J88" s="1">
         <v>0</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="4">
         <v>0</v>
       </c>
       <c r="L88" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5424,14 +5428,14 @@
       <c r="J89" s="1">
         <v>0</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5462,14 +5466,14 @@
       <c r="J90" s="1">
         <v>0</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="4">
         <v>0</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5500,14 +5504,14 @@
       <c r="J91" s="1">
         <v>0</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="4">
         <v>0</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5538,14 +5542,14 @@
       <c r="J92" s="1">
         <v>0</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="4">
         <v>3</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5576,14 +5580,14 @@
       <c r="J93" s="1">
         <v>0</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="4">
         <v>0</v>
       </c>
       <c r="L93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5614,14 +5618,14 @@
       <c r="J94" s="1">
         <v>0</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="4">
         <v>0</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5652,14 +5656,14 @@
       <c r="J95" s="1">
         <v>0</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="4">
         <v>2</v>
       </c>
       <c r="L95" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5690,14 +5694,14 @@
       <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="4">
         <v>0</v>
       </c>
       <c r="L96" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5728,14 +5732,14 @@
       <c r="J97" s="1">
         <v>0</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="4">
         <v>1</v>
       </c>
       <c r="L97" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5766,14 +5770,14 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="4">
         <v>2</v>
       </c>
       <c r="L98" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5804,14 +5808,14 @@
       <c r="J99" s="1">
         <v>0</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5842,14 +5846,14 @@
       <c r="J100" s="1">
         <v>0</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="4">
         <v>3</v>
       </c>
       <c r="L100" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5880,14 +5884,14 @@
       <c r="J101" s="1">
         <v>0</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="4">
         <v>0</v>
       </c>
       <c r="L101" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5918,14 +5922,14 @@
       <c r="J102" s="1">
         <v>0</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="4">
         <v>0</v>
       </c>
       <c r="L102" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5956,14 +5960,14 @@
       <c r="J103" s="1">
         <v>0</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="4">
         <v>0</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5994,14 +5998,14 @@
       <c r="J104" s="1">
         <v>0</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="4">
         <v>0</v>
       </c>
       <c r="L104" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6032,14 +6036,14 @@
       <c r="J105" s="1">
         <v>0</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="4">
         <v>0</v>
       </c>
       <c r="L105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6070,14 +6074,14 @@
       <c r="J106" s="1">
         <v>0</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="4">
         <v>0</v>
       </c>
       <c r="L106" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6108,14 +6112,14 @@
       <c r="J107" s="1">
         <v>0</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="4">
         <v>2</v>
       </c>
       <c r="L107" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6146,14 +6150,14 @@
       <c r="J108" s="1">
         <v>0</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="4">
         <v>3</v>
       </c>
       <c r="L108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6184,14 +6188,14 @@
       <c r="J109" s="1">
         <v>0</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="4">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6222,14 +6226,14 @@
       <c r="J110" s="1">
         <v>0</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="4">
         <v>0</v>
       </c>
       <c r="L110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6260,14 +6264,14 @@
       <c r="J111" s="1">
         <v>0</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="4">
         <v>3</v>
       </c>
       <c r="L111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6298,14 +6302,14 @@
       <c r="J112" s="1">
         <v>0</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="4">
         <v>2</v>
       </c>
       <c r="L112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6336,14 +6340,14 @@
       <c r="J113" s="1">
         <v>0</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="4">
         <v>0</v>
       </c>
       <c r="L113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6374,14 +6378,14 @@
       <c r="J114" s="1">
         <v>0</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6412,14 +6416,14 @@
       <c r="J115" s="1">
         <v>0</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="4">
         <v>0</v>
       </c>
       <c r="L115" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6450,14 +6454,14 @@
       <c r="J116" s="1">
         <v>0</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="4">
         <v>0</v>
       </c>
       <c r="L116" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6488,14 +6492,14 @@
       <c r="J117" s="1">
         <v>0</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="4">
         <v>0</v>
       </c>
       <c r="L117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6526,14 +6530,14 @@
       <c r="J118" s="1">
         <v>0</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="4">
         <v>0</v>
       </c>
       <c r="L118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6564,14 +6568,14 @@
       <c r="J119" s="1">
         <v>0</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="4">
         <v>2</v>
       </c>
       <c r="L119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6602,14 +6606,14 @@
       <c r="J120" s="1">
         <v>0</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="4">
         <v>3</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6640,14 +6644,14 @@
       <c r="J121" s="1">
         <v>0</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="4">
         <v>1</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6678,14 +6682,14 @@
       <c r="J122" s="1">
         <v>0</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="4">
         <v>0</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6716,14 +6720,14 @@
       <c r="J123" s="1">
         <v>0</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="4">
         <v>0</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6754,14 +6758,14 @@
       <c r="J124" s="1">
         <v>0</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="4">
         <v>0</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6792,14 +6796,14 @@
       <c r="J125" s="1">
         <v>0</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="4">
         <v>0</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6830,14 +6834,14 @@
       <c r="J126" s="1">
         <v>0</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="4">
         <v>0</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6868,14 +6872,14 @@
       <c r="J127" s="1">
         <v>0</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="4">
         <v>0</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6906,14 +6910,14 @@
       <c r="J128" s="1">
         <v>0</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="4">
         <v>0</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6944,14 +6948,14 @@
       <c r="J129" s="1">
         <v>0</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="4">
         <v>0</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6982,14 +6986,14 @@
       <c r="J130" s="1">
         <v>0</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="4">
         <v>0</v>
       </c>
       <c r="L130" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7020,14 +7024,14 @@
       <c r="J131" s="1">
         <v>0</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="4">
         <v>0</v>
       </c>
       <c r="L131" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7058,14 +7062,14 @@
       <c r="J132" s="1">
         <v>0</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="4">
         <v>1</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7096,14 +7100,14 @@
       <c r="J133" s="1">
         <v>0</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="4">
         <v>2</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7134,14 +7138,14 @@
       <c r="J134" s="1">
         <v>0</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="4">
         <v>0</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7172,14 +7176,14 @@
       <c r="J135" s="1">
         <v>0</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="4">
         <v>0</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7210,14 +7214,14 @@
       <c r="J136" s="1">
         <v>0</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="4">
         <v>3</v>
       </c>
       <c r="L136" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7248,14 +7252,14 @@
       <c r="J137" s="1">
         <v>0</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="4">
         <v>0</v>
       </c>
       <c r="L137" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7286,14 +7290,14 @@
       <c r="J138" s="1">
         <v>0</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="4">
         <v>0</v>
       </c>
       <c r="L138" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7324,14 +7328,14 @@
       <c r="J139" s="1">
         <v>0</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="4">
         <v>0</v>
       </c>
       <c r="L139" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7362,14 +7366,14 @@
       <c r="J140" s="1">
         <v>0</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="4">
         <v>3</v>
       </c>
       <c r="L140" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7400,14 +7404,14 @@
       <c r="J141" s="1">
         <v>0</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="4">
         <v>0</v>
       </c>
       <c r="L141" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7438,14 +7442,14 @@
       <c r="J142" s="1">
         <v>0</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="4">
         <v>2</v>
       </c>
       <c r="L142" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7476,14 +7480,14 @@
       <c r="J143" s="1">
         <v>0</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="4">
         <v>1</v>
       </c>
       <c r="L143" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7514,14 +7518,14 @@
       <c r="J144" s="1">
         <v>0</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="4">
         <v>0</v>
       </c>
       <c r="L144" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7552,14 +7556,14 @@
       <c r="J145" s="1">
         <v>0</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="4">
         <v>0</v>
       </c>
       <c r="L145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7590,14 +7594,14 @@
       <c r="J146" s="1">
         <v>0</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="4">
         <v>1</v>
       </c>
       <c r="L146" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7628,14 +7632,14 @@
       <c r="J147" s="1">
         <v>0</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="4">
         <v>2</v>
       </c>
       <c r="L147" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7666,14 +7670,14 @@
       <c r="J148" s="1">
         <v>0</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="4">
         <v>0</v>
       </c>
       <c r="L148" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7704,14 +7708,14 @@
       <c r="J149" s="1">
         <v>0</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="4">
         <v>3</v>
       </c>
       <c r="L149" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7742,14 +7746,14 @@
       <c r="J150" s="1">
         <v>0</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="4">
         <v>0</v>
       </c>
       <c r="L150" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -7780,14 +7784,14 @@
       <c r="J151" s="1">
         <v>0</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="4">
         <v>3</v>
       </c>
       <c r="L151" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7818,14 +7822,14 @@
       <c r="J152" s="1">
         <v>0</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="4">
         <v>1</v>
       </c>
       <c r="L152" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7856,14 +7860,14 @@
       <c r="J153" s="1">
         <v>0</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="4">
         <v>2</v>
       </c>
       <c r="L153" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7894,14 +7898,14 @@
       <c r="J154" s="1">
         <v>0</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="4">
         <v>0</v>
       </c>
       <c r="L154" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7932,14 +7936,14 @@
       <c r="J155" s="1">
         <v>0</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="4">
         <v>0</v>
       </c>
       <c r="L155" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7970,14 +7974,14 @@
       <c r="J156" s="1">
         <v>0</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="4">
         <v>1</v>
       </c>
       <c r="L156" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8008,14 +8012,14 @@
       <c r="J157" s="1">
         <v>0</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="4">
         <v>3</v>
       </c>
       <c r="L157" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8046,14 +8050,14 @@
       <c r="J158" s="1">
         <v>0</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="4">
         <v>0</v>
       </c>
       <c r="L158" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8084,14 +8088,14 @@
       <c r="J159" s="1">
         <v>0</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="4">
         <v>0</v>
       </c>
       <c r="L159" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8122,14 +8126,14 @@
       <c r="J160" s="1">
         <v>0</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="4">
         <v>0</v>
       </c>
       <c r="L160" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8160,14 +8164,14 @@
       <c r="J161" s="1">
         <v>0</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="4">
         <v>2</v>
       </c>
       <c r="L161" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8198,14 +8202,14 @@
       <c r="J162" s="1">
         <v>0</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="4">
         <v>0</v>
       </c>
       <c r="L162" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8236,14 +8240,14 @@
       <c r="J163" s="1">
         <v>0</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="4">
         <v>0</v>
       </c>
       <c r="L163" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8274,14 +8278,14 @@
       <c r="J164" s="1">
         <v>0</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="4">
         <v>0</v>
       </c>
       <c r="L164" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8312,14 +8316,14 @@
       <c r="J165" s="1">
         <v>0</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="4">
         <v>0</v>
       </c>
       <c r="L165" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8350,14 +8354,14 @@
       <c r="J166" s="1">
         <v>0</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="4">
         <v>0</v>
       </c>
       <c r="L166" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8388,14 +8392,14 @@
       <c r="J167" s="1">
         <v>0</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="4">
         <v>0</v>
       </c>
       <c r="L167" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8426,14 +8430,14 @@
       <c r="J168" s="1">
         <v>0</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="4">
         <v>0</v>
       </c>
       <c r="L168" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8464,14 +8468,14 @@
       <c r="J169" s="1">
         <v>0</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="4">
         <v>0</v>
       </c>
       <c r="L169" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8502,14 +8506,14 @@
       <c r="J170" s="1">
         <v>0</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="4">
         <v>0</v>
       </c>
       <c r="L170" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8540,14 +8544,14 @@
       <c r="J171" s="1">
         <v>0</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="4">
         <v>0</v>
       </c>
       <c r="L171" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8578,14 +8582,14 @@
       <c r="J172" s="1">
         <v>0</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="4">
         <v>3</v>
       </c>
       <c r="L172" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8616,14 +8620,14 @@
       <c r="J173" s="1">
         <v>0</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="4">
         <v>2</v>
       </c>
       <c r="L173" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8654,14 +8658,14 @@
       <c r="J174" s="1">
         <v>0</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="4">
         <v>0</v>
       </c>
       <c r="L174" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8692,14 +8696,14 @@
       <c r="J175" s="1">
         <v>0</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="4">
         <v>1</v>
       </c>
       <c r="L175" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8730,14 +8734,14 @@
       <c r="J176" s="1">
         <v>0</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="4">
         <v>0</v>
       </c>
       <c r="L176" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8768,14 +8772,14 @@
       <c r="J177" s="1">
         <v>0</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="4">
         <v>0</v>
       </c>
       <c r="L177" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8806,14 +8810,14 @@
       <c r="J178" s="1">
         <v>0</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="4">
         <v>0</v>
       </c>
       <c r="L178" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -8844,14 +8848,14 @@
       <c r="J179" s="1">
         <v>0</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="4">
         <v>0</v>
       </c>
       <c r="L179" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -8882,14 +8886,14 @@
       <c r="J180" s="1">
         <v>0</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="4">
         <v>1</v>
       </c>
       <c r="L180" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -8920,14 +8924,14 @@
       <c r="J181" s="1">
         <v>0</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="4">
         <v>3</v>
       </c>
       <c r="L181" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -8958,14 +8962,14 @@
       <c r="J182" s="1">
         <v>0</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="4">
         <v>0</v>
       </c>
       <c r="L182" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -8996,14 +9000,14 @@
       <c r="J183" s="1">
         <v>0</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="4">
         <v>2</v>
       </c>
       <c r="L183" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9034,14 +9038,14 @@
       <c r="J184" s="1">
         <v>0</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="4">
         <v>3</v>
       </c>
       <c r="L184" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9072,14 +9076,14 @@
       <c r="J185" s="1">
         <v>0</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="4">
         <v>2</v>
       </c>
       <c r="L185" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9110,14 +9114,14 @@
       <c r="J186" s="1">
         <v>0</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="4">
         <v>1</v>
       </c>
       <c r="L186" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9148,14 +9152,14 @@
       <c r="J187" s="1">
         <v>0</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="4">
         <v>0</v>
       </c>
       <c r="L187" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9186,14 +9190,14 @@
       <c r="J188" s="1">
         <v>0</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="4">
         <v>0</v>
       </c>
       <c r="L188" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9224,14 +9228,14 @@
       <c r="J189" s="1">
         <v>0</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="4">
         <v>0</v>
       </c>
       <c r="L189" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9262,14 +9266,14 @@
       <c r="J190" s="1">
         <v>0</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="4">
         <v>3</v>
       </c>
       <c r="L190" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9300,14 +9304,14 @@
       <c r="J191" s="1">
         <v>0</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="4">
         <v>0</v>
       </c>
       <c r="L191" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -9338,14 +9342,14 @@
       <c r="J192" s="1">
         <v>0</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="4">
         <v>0</v>
       </c>
       <c r="L192" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -9376,14 +9380,14 @@
       <c r="J193" s="1">
         <v>0</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="4">
         <v>1</v>
       </c>
       <c r="L193" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -9414,14 +9418,14 @@
       <c r="J194" s="1">
         <v>0</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="4">
         <v>0</v>
       </c>
       <c r="L194" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -9452,14 +9456,14 @@
       <c r="J195" s="1">
         <v>0</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="4">
         <v>2</v>
       </c>
       <c r="L195" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -9490,14 +9494,14 @@
       <c r="J196" s="1">
         <v>0</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="4">
         <v>0</v>
       </c>
       <c r="L196" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -9528,14 +9532,14 @@
       <c r="J197" s="1">
         <v>0</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="4">
         <v>1</v>
       </c>
       <c r="L197" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -9566,14 +9570,14 @@
       <c r="J198" s="1">
         <v>0</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="4">
         <v>0</v>
       </c>
       <c r="L198" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -9604,14 +9608,14 @@
       <c r="J199" s="1">
         <v>0</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="4">
         <v>0</v>
       </c>
       <c r="L199" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -9642,14 +9646,14 @@
       <c r="J200" s="1">
         <v>0</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="4">
         <v>3</v>
       </c>
       <c r="L200" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -9680,14 +9684,14 @@
       <c r="J201" s="1">
         <v>0</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="4">
         <v>2</v>
       </c>
       <c r="L201" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -9718,14 +9722,14 @@
       <c r="J202" s="1">
         <v>0</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="4">
         <v>0</v>
       </c>
       <c r="L202" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -9756,14 +9760,14 @@
       <c r="J203" s="1">
         <v>0</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="4">
         <v>0</v>
       </c>
       <c r="L203" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -9794,14 +9798,14 @@
       <c r="J204" s="1">
         <v>0</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="4">
         <v>0</v>
       </c>
       <c r="L204" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -9832,14 +9836,14 @@
       <c r="J205" s="1">
         <v>0</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="4">
         <v>0</v>
       </c>
       <c r="L205" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -9870,14 +9874,14 @@
       <c r="J206" s="1">
         <v>0</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="4">
         <v>0</v>
       </c>
       <c r="L206" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -9908,14 +9912,14 @@
       <c r="J207" s="1">
         <v>0</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="4">
         <v>0</v>
       </c>
       <c r="L207" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -9946,14 +9950,14 @@
       <c r="J208" s="1">
         <v>0</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="4">
         <v>0</v>
       </c>
       <c r="L208" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -9984,14 +9988,14 @@
       <c r="J209" s="1">
         <v>0</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="4">
         <v>0</v>
       </c>
       <c r="L209" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10022,14 +10026,14 @@
       <c r="J210" s="1">
         <v>0</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="4">
         <v>0</v>
       </c>
       <c r="L210" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10060,14 +10064,14 @@
       <c r="J211" s="1">
         <v>0</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="4">
         <v>0</v>
       </c>
       <c r="L211" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10098,14 +10102,14 @@
       <c r="J212" s="1">
         <v>0</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="4">
         <v>2</v>
       </c>
       <c r="L212" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10136,14 +10140,14 @@
       <c r="J213" s="1">
         <v>0</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="4">
         <v>0</v>
       </c>
       <c r="L213" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -10174,14 +10178,14 @@
       <c r="J214" s="1">
         <v>0</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="4">
         <v>0</v>
       </c>
       <c r="L214" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -10212,14 +10216,14 @@
       <c r="J215" s="1">
         <v>0</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="4">
         <v>3</v>
       </c>
       <c r="L215" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -10250,14 +10254,14 @@
       <c r="J216" s="1">
         <v>0</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="4">
         <v>1</v>
       </c>
       <c r="L216" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -10288,14 +10292,14 @@
       <c r="J217" s="1">
         <v>0</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="4">
         <v>0</v>
       </c>
       <c r="L217" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -10326,14 +10330,14 @@
       <c r="J218" s="1">
         <v>0</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="4">
         <v>2</v>
       </c>
       <c r="L218" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -10364,14 +10368,14 @@
       <c r="J219" s="1">
         <v>0</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="4">
         <v>0</v>
       </c>
       <c r="L219" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -10402,14 +10406,14 @@
       <c r="J220" s="1">
         <v>0</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="4">
         <v>0</v>
       </c>
       <c r="L220" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -10440,14 +10444,14 @@
       <c r="J221" s="1">
         <v>0</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="4">
         <v>0</v>
       </c>
       <c r="L221" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -10478,14 +10482,14 @@
       <c r="J222" s="1">
         <v>0</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="4">
         <v>3</v>
       </c>
       <c r="L222" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -10516,14 +10520,14 @@
       <c r="J223" s="1">
         <v>0</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="4">
         <v>1</v>
       </c>
       <c r="L223" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -10554,14 +10558,14 @@
       <c r="J224" s="1">
         <v>0</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="4">
         <v>0</v>
       </c>
       <c r="L224" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -10592,14 +10596,14 @@
       <c r="J225" s="1">
         <v>0</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="4">
         <v>2</v>
       </c>
       <c r="L225" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -10630,14 +10634,14 @@
       <c r="J226" s="1">
         <v>0</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="4">
         <v>1</v>
       </c>
       <c r="L226" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -10668,14 +10672,14 @@
       <c r="J227" s="1">
         <v>0</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="4">
         <v>0</v>
       </c>
       <c r="L227" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -10706,14 +10710,14 @@
       <c r="J228" s="1">
         <v>0</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="4">
         <v>0</v>
       </c>
       <c r="L228" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -10744,14 +10748,14 @@
       <c r="J229" s="1">
         <v>0</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="4">
         <v>3</v>
       </c>
       <c r="L229" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -10782,14 +10786,14 @@
       <c r="J230" s="1">
         <v>0</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="4">
         <v>0</v>
       </c>
       <c r="L230" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -10820,14 +10824,14 @@
       <c r="J231" s="1">
         <v>0</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="4">
         <v>0</v>
       </c>
       <c r="L231" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -10858,14 +10862,14 @@
       <c r="J232" s="1">
         <v>0</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="4">
         <v>1</v>
       </c>
       <c r="L232" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -10896,14 +10900,14 @@
       <c r="J233" s="1">
         <v>0</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="4">
         <v>0</v>
       </c>
       <c r="L233" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -10934,14 +10938,14 @@
       <c r="J234" s="1">
         <v>0</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="4">
         <v>2</v>
       </c>
       <c r="L234" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -10972,14 +10976,14 @@
       <c r="J235" s="1">
         <v>0</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="4">
         <v>3</v>
       </c>
       <c r="L235" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11010,14 +11014,14 @@
       <c r="J236" s="1">
         <v>0</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="4">
         <v>0</v>
       </c>
       <c r="L236" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11048,14 +11052,14 @@
       <c r="J237" s="1">
         <v>0</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="4">
         <v>0</v>
       </c>
       <c r="L237" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11086,14 +11090,14 @@
       <c r="J238" s="1">
         <v>0</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="4">
         <v>3</v>
       </c>
       <c r="L238" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11124,14 +11128,14 @@
       <c r="J239" s="1">
         <v>0</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="4">
         <v>0</v>
       </c>
       <c r="L239" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11162,14 +11166,14 @@
       <c r="J240" s="1">
         <v>0</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="4">
         <v>1</v>
       </c>
       <c r="L240" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11200,7 +11204,7 @@
       <c r="J241" s="1">
         <v>0</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="4">
         <v>2</v>
       </c>
       <c r="L241" s="1">

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/155826a8f07387bf/GE_Drive/PhD/PhD Projects/Project 1 Vibration Targeting/elbow-vibration-targeting/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_6ADBCD330A89581F30F662FE3B96871581FCB24E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02FC541-619C-4D8D-AA96-B0AAEAB4EE20}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Template"/>
-    <sheet r:id="rId2" sheetId="2" name="Testing"/>
-    <sheet r:id="rId3" sheetId="3" name="Practice"/>
-    <sheet r:id="rId4" sheetId="4" name="main"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Testing" sheetId="2" r:id="rId2"/>
+    <sheet name="practice" sheetId="3" r:id="rId3"/>
+    <sheet name="baseline" sheetId="5" r:id="rId4"/>
+    <sheet name="main" sheetId="4" r:id="rId5"/>
+    <sheet name="post" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>trial_num</t>
   </si>
@@ -106,8 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,12 +151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdeebf7"/>
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfff2cc"/>
+        <fgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,31 +177,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdeebf7"/>
+        <color rgb="FFDEEBF7"/>
       </left>
       <right style="thin">
-        <color rgb="FFdeebf7"/>
+        <color rgb="FFDEEBF7"/>
       </right>
       <top style="thin">
-        <color rgb="FFdeebf7"/>
+        <color rgb="FFDEEBF7"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFdeebf7"/>
+        <color rgb="FFDEEBF7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFfff2cc"/>
+        <color rgb="FFFFF2CC"/>
       </left>
       <right style="thin">
-        <color rgb="FFfff2cc"/>
+        <color rgb="FFFFF2CC"/>
       </right>
       <top style="thin">
-        <color rgb="FFfff2cc"/>
+        <color rgb="FFFFF2CC"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFfff2cc"/>
+        <color rgb="FFFFF2CC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,56 +209,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -262,10 +266,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -303,71 +307,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,7 +399,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -418,11 +422,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -431,13 +435,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -447,7 +451,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -456,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -465,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,10 +477,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -541,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -551,21 +555,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -641,131 +641,122 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,31 +764,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -873,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -887,7 +878,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -901,7 +892,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -915,7 +906,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -929,7 +920,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -943,7 +934,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -957,7 +948,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -971,7 +962,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -985,7 +976,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -999,7 +990,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1013,7 +1004,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1027,7 +1018,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1041,7 +1032,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1055,7 +1046,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1069,7 +1060,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1083,7 +1074,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1097,7 +1088,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1111,7 +1102,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1125,7 +1116,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1139,7 +1130,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1153,7 +1144,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1167,7 +1158,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1181,7 +1172,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1201,31 +1192,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1301,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1339,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1377,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1415,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1453,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1491,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1567,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1605,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1643,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1681,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1719,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1757,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1795,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1833,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1871,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1909,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1947,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1985,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2029,31 +2022,1622 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674ABFE6-3B01-4895-899E-D319B3672811}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +3675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2129,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2167,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2205,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2243,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2281,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2319,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2357,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2395,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2433,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2471,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2509,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2547,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2585,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2623,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2661,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2699,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2737,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2775,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2813,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2851,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2889,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2927,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2965,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3003,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3041,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3079,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3117,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3155,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3193,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3231,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3269,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3307,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3345,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3383,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3421,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3459,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3497,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3535,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3573,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3611,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3649,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3687,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3725,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3763,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3801,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3839,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3877,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3915,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3953,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3991,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4029,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4067,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4105,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4143,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4181,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4219,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4257,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4295,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4333,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4371,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4409,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4447,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4485,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4523,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4561,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4599,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4637,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4675,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4713,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4751,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4789,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4827,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4865,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4903,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4941,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4979,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5017,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5055,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5093,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5131,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5169,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5207,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5245,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5283,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5321,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5359,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5397,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5435,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5473,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5511,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5549,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5587,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5625,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5663,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5701,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5739,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5777,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5815,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5853,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5891,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5929,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5967,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6005,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6043,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6081,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6119,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6157,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6195,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6233,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6271,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6309,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6347,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6385,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6423,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6461,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6499,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6537,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6575,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6613,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6651,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6689,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6727,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6765,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6803,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6841,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6879,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6917,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6955,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6993,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7031,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7069,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7107,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7145,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7183,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7221,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7259,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7297,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7335,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7373,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7411,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7449,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7487,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7525,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7563,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7601,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7639,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7677,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7715,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7753,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -7791,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7829,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7867,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7905,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7943,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7981,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8019,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8057,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8095,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8133,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8171,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8209,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8247,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8285,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8323,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8361,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8399,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8437,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8475,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8513,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8551,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8589,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8627,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8665,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8703,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8741,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8779,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8817,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -8855,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -8893,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -8931,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -8969,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9007,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9045,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9083,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9121,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9159,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9197,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9235,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9273,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9311,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -9349,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -9387,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -9425,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -9463,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -9501,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -9539,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -9577,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -9615,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -9653,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -9691,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -9729,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -9767,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -9805,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -9843,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -9881,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -9919,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -9957,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -9995,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10033,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10071,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10109,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10147,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -10185,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -10223,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -10261,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -10299,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -10337,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -10375,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -10413,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -10451,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -10489,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -10527,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -10565,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -10603,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -10641,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -10679,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -10717,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -10755,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -10793,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -10831,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -10869,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -10907,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -10945,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -10983,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11021,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11059,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11097,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11135,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11173,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11208,6 +12792,1596 @@
         <v>2</v>
       </c>
       <c r="L241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EC86FE-12AD-4C73-83BA-36A957E00757}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>1</v>
@@ -928,652 +928,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1603,10 +974,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
@@ -1622,7 +993,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="13.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
@@ -1668,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
@@ -1698,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -1706,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>0</v>
@@ -1736,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -1744,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
@@ -1774,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -1782,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>0</v>
@@ -1812,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -1820,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
@@ -1850,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -1858,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>0</v>
@@ -1888,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -1896,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
@@ -1926,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
@@ -1934,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0</v>
@@ -1964,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
@@ -1972,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -2002,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -2010,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -2040,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
@@ -2048,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -2078,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -2086,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -2116,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
@@ -2124,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -2154,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
@@ -2162,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
@@ -2192,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
@@ -2200,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>0</v>
@@ -2230,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
@@ -2238,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>0</v>
@@ -2268,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
@@ -2276,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0</v>
@@ -2306,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
@@ -2314,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -2344,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
@@ -2352,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>0</v>
@@ -2382,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
@@ -2390,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>0</v>
@@ -2439,10 +1810,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
@@ -2458,7 +1829,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="9.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2496,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
@@ -2504,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
@@ -2534,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -2542,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>0</v>
@@ -2572,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -2580,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
@@ -2610,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -2618,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>0</v>
@@ -2648,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -2656,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
@@ -2686,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -2694,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>0</v>
@@ -2724,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -2732,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
@@ -2762,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
@@ -2770,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0</v>
@@ -2800,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
@@ -2808,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -2838,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -2846,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -2876,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
@@ -2884,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -2914,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -2922,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -2952,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
@@ -2960,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -2990,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
@@ -2998,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
@@ -3028,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
@@ -3036,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>0</v>
@@ -3066,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
@@ -3074,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>0</v>
@@ -3104,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
@@ -3112,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0</v>
@@ -3142,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
@@ -3150,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -3180,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
@@ -3188,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>0</v>
@@ -3218,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
@@ -3226,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>0</v>
@@ -3256,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
@@ -3264,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>0</v>
@@ -3294,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
@@ -3302,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="n">
         <v>0</v>
@@ -3332,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
@@ -3340,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>0</v>
@@ -3370,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
@@ -3378,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>0</v>
@@ -3408,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
@@ -3416,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>0</v>
@@ -3446,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
@@ -3454,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>0</v>
@@ -3484,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
@@ -3492,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="9" t="n">
         <v>0</v>
@@ -3522,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
@@ -3530,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>0</v>
@@ -3560,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
@@ -3568,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9" t="n">
         <v>0</v>
@@ -3598,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
@@ -3606,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>0</v>
@@ -3636,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
@@ -3644,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>0</v>
@@ -3674,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
@@ -3682,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>0</v>
@@ -3712,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
@@ -3720,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>0</v>
@@ -3750,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
@@ -3758,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>0</v>
@@ -3788,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
@@ -3796,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>0</v>
@@ -3826,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
@@ -3834,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>0</v>
@@ -3864,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
@@ -3872,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>0</v>
@@ -3902,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
@@ -3910,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>0</v>
@@ -3940,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
@@ -3948,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9" t="n">
         <v>0</v>
@@ -3978,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
@@ -3986,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" s="9" t="n">
         <v>0</v>
@@ -4035,10 +3406,10 @@
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
@@ -4053,7 +3424,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="8" width="13.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -4091,7 +3462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
@@ -4099,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
@@ -4129,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -4137,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>0</v>
@@ -4167,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -4175,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
@@ -4205,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -4213,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>0</v>
@@ -4243,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -4251,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
@@ -4281,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -4289,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>0</v>
@@ -4319,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -4327,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
@@ -4357,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
@@ -4365,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0</v>
@@ -4395,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
@@ -4403,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -4433,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -4441,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -4471,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
@@ -4479,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -4509,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -4517,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -4547,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
@@ -4555,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -4585,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
@@ -4593,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
@@ -4623,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
@@ -4631,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>0</v>
@@ -4661,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
@@ -4669,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>0</v>
@@ -4699,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
@@ -4707,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0</v>
@@ -4737,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
@@ -4745,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -4775,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
@@ -4783,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>0</v>
@@ -4813,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
@@ -4821,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>0</v>
@@ -4851,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
@@ -4859,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>0</v>
@@ -4889,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
@@ -4897,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="n">
         <v>0</v>
@@ -4927,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
@@ -4935,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>0</v>
@@ -4965,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
@@ -4973,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>0</v>
@@ -5003,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
@@ -5011,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>0</v>
@@ -5041,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
@@ -5049,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>0</v>
@@ -5079,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
@@ -5087,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="9" t="n">
         <v>0</v>
@@ -5117,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
@@ -5125,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>0</v>
@@ -5155,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
@@ -5163,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9" t="n">
         <v>0</v>
@@ -5193,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
@@ -5201,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>0</v>
@@ -5231,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
@@ -5239,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>0</v>
@@ -5269,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
@@ -5277,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>0</v>
@@ -5307,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
@@ -5315,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>0</v>
@@ -5345,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
@@ -5353,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>0</v>
@@ -5383,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
@@ -5391,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>0</v>
@@ -5421,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
@@ -5429,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>0</v>
@@ -5459,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
@@ -5467,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>0</v>
@@ -5497,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
@@ -5505,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>0</v>
@@ -5535,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
@@ -5543,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9" t="n">
         <v>0</v>
@@ -5573,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
@@ -5581,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" s="9" t="n">
         <v>0</v>
@@ -5611,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
         <v>41</v>
       </c>
@@ -5619,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D42" s="9" t="n">
         <v>0</v>
@@ -5649,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
         <v>42</v>
       </c>
@@ -5657,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43" s="9" t="n">
         <v>0</v>
@@ -5687,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
         <v>43</v>
       </c>
@@ -5695,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D44" s="9" t="n">
         <v>0</v>
@@ -5725,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
         <v>44</v>
       </c>
@@ -5733,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D45" s="9" t="n">
         <v>0</v>
@@ -5763,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
         <v>45</v>
       </c>
@@ -5771,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>0</v>
@@ -5801,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
         <v>46</v>
       </c>
@@ -5809,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D47" s="9" t="n">
         <v>0</v>
@@ -5839,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
         <v>47</v>
       </c>
@@ -5847,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D48" s="9" t="n">
         <v>0</v>
@@ -5877,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
         <v>48</v>
       </c>
@@ -5885,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49" s="9" t="n">
         <v>0</v>
@@ -5915,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
         <v>49</v>
       </c>
@@ -5923,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D50" s="9" t="n">
         <v>0</v>
@@ -5953,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
         <v>50</v>
       </c>
@@ -5961,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D51" s="9" t="n">
         <v>0</v>
@@ -5991,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
         <v>51</v>
       </c>
@@ -5999,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D52" s="9" t="n">
         <v>0</v>
@@ -6029,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
         <v>52</v>
       </c>
@@ -6037,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D53" s="9" t="n">
         <v>0</v>
@@ -6067,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
         <v>53</v>
       </c>
@@ -6075,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D54" s="9" t="n">
         <v>0</v>
@@ -6105,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
         <v>54</v>
       </c>
@@ -6113,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D55" s="9" t="n">
         <v>0</v>
@@ -6143,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
         <v>55</v>
       </c>
@@ -6151,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D56" s="9" t="n">
         <v>0</v>
@@ -6181,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
         <v>56</v>
       </c>
@@ -6189,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D57" s="9" t="n">
         <v>0</v>
@@ -6219,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>57</v>
       </c>
@@ -6227,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="9" t="n">
         <v>0</v>
@@ -6257,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="n">
         <v>58</v>
       </c>
@@ -6265,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D59" s="9" t="n">
         <v>0</v>
@@ -6295,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="n">
         <v>59</v>
       </c>
@@ -6303,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D60" s="9" t="n">
         <v>0</v>
@@ -6333,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="n">
         <v>60</v>
       </c>
@@ -6341,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D61" s="9" t="n">
         <v>0</v>
@@ -6371,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
         <v>61</v>
       </c>
@@ -6379,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D62" s="9" t="n">
         <v>0</v>
@@ -6409,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
         <v>62</v>
       </c>
@@ -6417,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D63" s="9" t="n">
         <v>0</v>
@@ -6447,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
         <v>63</v>
       </c>
@@ -6455,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D64" s="9" t="n">
         <v>0</v>
@@ -6485,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="n">
         <v>64</v>
       </c>
@@ -6493,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D65" s="9" t="n">
         <v>0</v>
@@ -6523,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
         <v>65</v>
       </c>
@@ -6531,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D66" s="9" t="n">
         <v>0</v>
@@ -6561,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="n">
         <v>66</v>
       </c>
@@ -6569,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D67" s="9" t="n">
         <v>0</v>
@@ -6599,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
         <v>67</v>
       </c>
@@ -6607,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D68" s="9" t="n">
         <v>0</v>
@@ -6637,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="n">
         <v>68</v>
       </c>
@@ -6645,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D69" s="9" t="n">
         <v>0</v>
@@ -6675,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="n">
         <v>69</v>
       </c>
@@ -6683,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D70" s="9" t="n">
         <v>0</v>
@@ -6713,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="n">
         <v>70</v>
       </c>
@@ -6721,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D71" s="9" t="n">
         <v>0</v>
@@ -6751,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="n">
         <v>71</v>
       </c>
@@ -6759,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" s="9" t="n">
         <v>0</v>
@@ -6789,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="n">
         <v>72</v>
       </c>
@@ -6797,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73" s="9" t="n">
         <v>0</v>
@@ -6827,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="n">
         <v>73</v>
       </c>
@@ -6835,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D74" s="9" t="n">
         <v>0</v>
@@ -6865,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="n">
         <v>74</v>
       </c>
@@ -6873,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D75" s="9" t="n">
         <v>0</v>
@@ -6903,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="n">
         <v>75</v>
       </c>
@@ -6911,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D76" s="9" t="n">
         <v>0</v>
@@ -6941,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="n">
         <v>76</v>
       </c>
@@ -6949,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D77" s="9" t="n">
         <v>0</v>
@@ -6979,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="n">
         <v>77</v>
       </c>
@@ -6987,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D78" s="9" t="n">
         <v>0</v>
@@ -7017,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="n">
         <v>78</v>
       </c>
@@ -7025,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D79" s="9" t="n">
         <v>0</v>
@@ -7055,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="n">
         <v>79</v>
       </c>
@@ -7063,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D80" s="9" t="n">
         <v>0</v>
@@ -7093,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="n">
         <v>80</v>
       </c>
@@ -7101,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D81" s="9" t="n">
         <v>0</v>
@@ -7131,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="n">
         <v>81</v>
       </c>
@@ -7139,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D82" s="9" t="n">
         <v>0</v>
@@ -7169,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="n">
         <v>82</v>
       </c>
@@ -7177,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D83" s="9" t="n">
         <v>0</v>
@@ -7207,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="n">
         <v>83</v>
       </c>
@@ -7215,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D84" s="9" t="n">
         <v>0</v>
@@ -7245,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="n">
         <v>84</v>
       </c>
@@ -7253,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D85" s="9" t="n">
         <v>0</v>
@@ -7283,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="n">
         <v>85</v>
       </c>
@@ -7291,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D86" s="9" t="n">
         <v>0</v>
@@ -7321,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="n">
         <v>86</v>
       </c>
@@ -7329,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D87" s="9" t="n">
         <v>0</v>
@@ -7359,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="n">
         <v>87</v>
       </c>
@@ -7367,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D88" s="9" t="n">
         <v>0</v>
@@ -7397,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="n">
         <v>88</v>
       </c>
@@ -7405,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D89" s="9" t="n">
         <v>0</v>
@@ -7435,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="n">
         <v>89</v>
       </c>
@@ -7443,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D90" s="9" t="n">
         <v>0</v>
@@ -7473,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="n">
         <v>90</v>
       </c>
@@ -7481,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D91" s="9" t="n">
         <v>0</v>
@@ -7511,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="n">
         <v>91</v>
       </c>
@@ -7519,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D92" s="9" t="n">
         <v>0</v>
@@ -7549,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="n">
         <v>92</v>
       </c>
@@ -7557,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D93" s="9" t="n">
         <v>0</v>
@@ -7587,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="n">
         <v>93</v>
       </c>
@@ -7595,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D94" s="9" t="n">
         <v>0</v>
@@ -7625,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="n">
         <v>94</v>
       </c>
@@ -7633,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D95" s="9" t="n">
         <v>0</v>
@@ -7663,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="n">
         <v>95</v>
       </c>
@@ -7671,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D96" s="9" t="n">
         <v>0</v>
@@ -7701,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="n">
         <v>96</v>
       </c>
@@ -7709,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D97" s="9" t="n">
         <v>0</v>
@@ -7739,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="n">
         <v>97</v>
       </c>
@@ -7747,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98" s="9" t="n">
         <v>0</v>
@@ -7777,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="n">
         <v>98</v>
       </c>
@@ -7785,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D99" s="9" t="n">
         <v>0</v>
@@ -7815,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="n">
         <v>99</v>
       </c>
@@ -7823,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D100" s="9" t="n">
         <v>0</v>
@@ -7853,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="n">
         <v>100</v>
       </c>
@@ -7861,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D101" s="9" t="n">
         <v>0</v>
@@ -7891,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="n">
         <v>101</v>
       </c>
@@ -7899,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D102" s="9" t="n">
         <v>0</v>
@@ -7929,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="n">
         <v>102</v>
       </c>
@@ -7937,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D103" s="9" t="n">
         <v>0</v>
@@ -7967,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="n">
         <v>103</v>
       </c>
@@ -7975,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D104" s="9" t="n">
         <v>0</v>
@@ -8005,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="n">
         <v>104</v>
       </c>
@@ -8013,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D105" s="9" t="n">
         <v>0</v>
@@ -8043,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="n">
         <v>105</v>
       </c>
@@ -8051,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D106" s="9" t="n">
         <v>0</v>
@@ -8081,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="n">
         <v>106</v>
       </c>
@@ -8089,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D107" s="9" t="n">
         <v>0</v>
@@ -8119,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="n">
         <v>107</v>
       </c>
@@ -8127,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D108" s="9" t="n">
         <v>0</v>
@@ -8157,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="n">
         <v>108</v>
       </c>
@@ -8165,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D109" s="9" t="n">
         <v>0</v>
@@ -8195,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="n">
         <v>109</v>
       </c>
@@ -8203,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D110" s="9" t="n">
         <v>0</v>
@@ -8233,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="n">
         <v>110</v>
       </c>
@@ -8241,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D111" s="9" t="n">
         <v>0</v>
@@ -8271,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="n">
         <v>111</v>
       </c>
@@ -8279,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D112" s="9" t="n">
         <v>0</v>
@@ -8309,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="n">
         <v>112</v>
       </c>
@@ -8317,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D113" s="9" t="n">
         <v>0</v>
@@ -8347,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="n">
         <v>113</v>
       </c>
@@ -8355,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D114" s="9" t="n">
         <v>0</v>
@@ -8385,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="n">
         <v>114</v>
       </c>
@@ -8393,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D115" s="9" t="n">
         <v>0</v>
@@ -8423,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="n">
         <v>115</v>
       </c>
@@ -8431,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D116" s="9" t="n">
         <v>0</v>
@@ -8461,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="n">
         <v>116</v>
       </c>
@@ -8469,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D117" s="9" t="n">
         <v>0</v>
@@ -8499,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="n">
         <v>117</v>
       </c>
@@ -8507,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D118" s="9" t="n">
         <v>0</v>
@@ -8537,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="n">
         <v>118</v>
       </c>
@@ -8545,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D119" s="9" t="n">
         <v>0</v>
@@ -8575,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="n">
         <v>119</v>
       </c>
@@ -8583,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D120" s="9" t="n">
         <v>0</v>
@@ -8613,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="n">
         <v>120</v>
       </c>
@@ -8621,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D121" s="9" t="n">
         <v>0</v>
@@ -8651,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="n">
         <v>121</v>
       </c>
@@ -8659,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D122" s="9" t="n">
         <v>0</v>
@@ -8689,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="n">
         <v>122</v>
       </c>
@@ -8697,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D123" s="9" t="n">
         <v>0</v>
@@ -8727,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="n">
         <v>123</v>
       </c>
@@ -8735,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D124" s="9" t="n">
         <v>0</v>
@@ -8765,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="n">
         <v>124</v>
       </c>
@@ -8773,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D125" s="9" t="n">
         <v>0</v>
@@ -8803,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="n">
         <v>125</v>
       </c>
@@ -8811,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D126" s="9" t="n">
         <v>0</v>
@@ -8841,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="n">
         <v>126</v>
       </c>
@@ -8849,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D127" s="9" t="n">
         <v>0</v>
@@ -8879,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="n">
         <v>127</v>
       </c>
@@ -8887,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D128" s="9" t="n">
         <v>0</v>
@@ -8917,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="n">
         <v>128</v>
       </c>
@@ -8925,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D129" s="9" t="n">
         <v>0</v>
@@ -8955,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="n">
         <v>129</v>
       </c>
@@ -8963,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D130" s="9" t="n">
         <v>0</v>
@@ -8993,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="n">
         <v>130</v>
       </c>
@@ -9001,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D131" s="9" t="n">
         <v>0</v>
@@ -9031,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="n">
         <v>131</v>
       </c>
@@ -9039,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D132" s="9" t="n">
         <v>0</v>
@@ -9069,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="n">
         <v>132</v>
       </c>
@@ -9077,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D133" s="9" t="n">
         <v>0</v>
@@ -9107,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="n">
         <v>133</v>
       </c>
@@ -9115,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D134" s="9" t="n">
         <v>0</v>
@@ -9145,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="n">
         <v>134</v>
       </c>
@@ -9153,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135" s="9" t="n">
         <v>0</v>
@@ -9183,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="n">
         <v>135</v>
       </c>
@@ -9191,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D136" s="9" t="n">
         <v>0</v>
@@ -9221,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="n">
         <v>136</v>
       </c>
@@ -9229,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D137" s="9" t="n">
         <v>0</v>
@@ -9259,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="n">
         <v>137</v>
       </c>
@@ -9267,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D138" s="9" t="n">
         <v>0</v>
@@ -9297,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="n">
         <v>138</v>
       </c>
@@ -9305,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D139" s="9" t="n">
         <v>0</v>
@@ -9335,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="n">
         <v>139</v>
       </c>
@@ -9343,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D140" s="9" t="n">
         <v>0</v>
@@ -9373,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="n">
         <v>140</v>
       </c>
@@ -9381,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D141" s="9" t="n">
         <v>0</v>
@@ -9411,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="n">
         <v>141</v>
       </c>
@@ -9419,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D142" s="9" t="n">
         <v>0</v>
@@ -9449,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="n">
         <v>142</v>
       </c>
@@ -9457,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D143" s="9" t="n">
         <v>0</v>
@@ -9487,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="n">
         <v>143</v>
       </c>
@@ -9495,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D144" s="9" t="n">
         <v>0</v>
@@ -9525,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="n">
         <v>144</v>
       </c>
@@ -9533,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D145" s="9" t="n">
         <v>0</v>
@@ -9563,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="n">
         <v>145</v>
       </c>
@@ -9571,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D146" s="9" t="n">
         <v>0</v>
@@ -9601,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="n">
         <v>146</v>
       </c>
@@ -9609,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D147" s="9" t="n">
         <v>0</v>
@@ -9639,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="n">
         <v>147</v>
       </c>
@@ -9647,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D148" s="9" t="n">
         <v>0</v>
@@ -9677,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="n">
         <v>148</v>
       </c>
@@ -9685,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D149" s="9" t="n">
         <v>0</v>
@@ -9715,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="n">
         <v>149</v>
       </c>
@@ -9723,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D150" s="9" t="n">
         <v>0</v>
@@ -9753,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="n">
         <v>150</v>
       </c>
@@ -9761,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D151" s="9" t="n">
         <v>0</v>
@@ -9791,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="n">
         <v>151</v>
       </c>
@@ -9799,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D152" s="9" t="n">
         <v>0</v>
@@ -9829,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="n">
         <v>152</v>
       </c>
@@ -9837,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D153" s="9" t="n">
         <v>0</v>
@@ -9867,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="n">
         <v>153</v>
       </c>
@@ -9875,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D154" s="9" t="n">
         <v>0</v>
@@ -9905,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="n">
         <v>154</v>
       </c>
@@ -9913,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D155" s="9" t="n">
         <v>0</v>
@@ -9943,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="n">
         <v>155</v>
       </c>
@@ -9951,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D156" s="9" t="n">
         <v>0</v>
@@ -9981,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="n">
         <v>156</v>
       </c>
@@ -9989,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D157" s="9" t="n">
         <v>0</v>
@@ -10019,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="n">
         <v>157</v>
       </c>
@@ -10027,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D158" s="9" t="n">
         <v>0</v>
@@ -10057,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="n">
         <v>158</v>
       </c>
@@ -10065,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D159" s="9" t="n">
         <v>0</v>
@@ -10095,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="n">
         <v>159</v>
       </c>
@@ -10103,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D160" s="9" t="n">
         <v>0</v>
@@ -10133,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="n">
         <v>160</v>
       </c>
@@ -10141,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D161" s="9" t="n">
         <v>0</v>
@@ -10171,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="n">
         <v>161</v>
       </c>
@@ -10179,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D162" s="9" t="n">
         <v>0</v>
@@ -10209,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
         <v>162</v>
       </c>
@@ -10217,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D163" s="9" t="n">
         <v>0</v>
@@ -10247,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="n">
         <v>163</v>
       </c>
@@ -10255,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D164" s="9" t="n">
         <v>0</v>
@@ -10285,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="n">
         <v>164</v>
       </c>
@@ -10293,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="C165" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D165" s="9" t="n">
         <v>0</v>
@@ -10323,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="n">
         <v>165</v>
       </c>
@@ -10331,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D166" s="9" t="n">
         <v>0</v>
@@ -10361,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="n">
         <v>166</v>
       </c>
@@ -10369,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D167" s="9" t="n">
         <v>0</v>
@@ -10399,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="n">
         <v>167</v>
       </c>
@@ -10407,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D168" s="9" t="n">
         <v>0</v>
@@ -10437,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="n">
         <v>168</v>
       </c>
@@ -10445,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D169" s="9" t="n">
         <v>0</v>
@@ -10475,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="n">
         <v>169</v>
       </c>
@@ -10483,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D170" s="9" t="n">
         <v>0</v>
@@ -10513,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="n">
         <v>170</v>
       </c>
@@ -10521,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D171" s="9" t="n">
         <v>0</v>
@@ -10551,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="n">
         <v>171</v>
       </c>
@@ -10559,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="C172" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D172" s="9" t="n">
         <v>0</v>
@@ -10589,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="n">
         <v>172</v>
       </c>
@@ -10597,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D173" s="9" t="n">
         <v>0</v>
@@ -10627,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="n">
         <v>173</v>
       </c>
@@ -10635,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D174" s="9" t="n">
         <v>0</v>
@@ -10665,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="n">
         <v>174</v>
       </c>
@@ -10673,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D175" s="9" t="n">
         <v>0</v>
@@ -10703,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="n">
         <v>175</v>
       </c>
@@ -10711,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D176" s="9" t="n">
         <v>0</v>
@@ -10741,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="n">
         <v>176</v>
       </c>
@@ -10749,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D177" s="9" t="n">
         <v>0</v>
@@ -10779,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="n">
         <v>177</v>
       </c>
@@ -10787,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D178" s="9" t="n">
         <v>0</v>
@@ -10817,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="n">
         <v>178</v>
       </c>
@@ -10825,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D179" s="9" t="n">
         <v>0</v>
@@ -10855,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="n">
         <v>179</v>
       </c>
@@ -10863,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="C180" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D180" s="9" t="n">
         <v>0</v>
@@ -10893,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="n">
         <v>180</v>
       </c>
@@ -10901,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D181" s="9" t="n">
         <v>0</v>
@@ -10931,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="n">
         <v>181</v>
       </c>
@@ -10939,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D182" s="9" t="n">
         <v>0</v>
@@ -10969,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="n">
         <v>182</v>
       </c>
@@ -10977,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D183" s="9" t="n">
         <v>0</v>
@@ -11007,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="n">
         <v>183</v>
       </c>
@@ -11015,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D184" s="9" t="n">
         <v>0</v>
@@ -11045,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="n">
         <v>184</v>
       </c>
@@ -11053,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D185" s="9" t="n">
         <v>0</v>
@@ -11083,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="n">
         <v>185</v>
       </c>
@@ -11091,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D186" s="9" t="n">
         <v>0</v>
@@ -11121,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="n">
         <v>186</v>
       </c>
@@ -11129,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D187" s="9" t="n">
         <v>0</v>
@@ -11159,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="n">
         <v>187</v>
       </c>
@@ -11167,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D188" s="9" t="n">
         <v>0</v>
@@ -11197,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="n">
         <v>188</v>
       </c>
@@ -11205,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D189" s="9" t="n">
         <v>0</v>
@@ -11235,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="n">
         <v>189</v>
       </c>
@@ -11243,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D190" s="9" t="n">
         <v>0</v>
@@ -11273,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="n">
         <v>190</v>
       </c>
@@ -11281,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D191" s="9" t="n">
         <v>0</v>
@@ -11311,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="n">
         <v>191</v>
       </c>
@@ -11319,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D192" s="9" t="n">
         <v>0</v>
@@ -11349,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="n">
         <v>192</v>
       </c>
@@ -11357,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D193" s="9" t="n">
         <v>0</v>
@@ -11387,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="n">
         <v>193</v>
       </c>
@@ -11395,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D194" s="9" t="n">
         <v>0</v>
@@ -11425,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="n">
         <v>194</v>
       </c>
@@ -11433,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D195" s="9" t="n">
         <v>0</v>
@@ -11463,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="n">
         <v>195</v>
       </c>
@@ -11471,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D196" s="9" t="n">
         <v>0</v>
@@ -11501,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="n">
         <v>196</v>
       </c>
@@ -11509,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D197" s="9" t="n">
         <v>0</v>
@@ -11539,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="n">
         <v>197</v>
       </c>
@@ -11547,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D198" s="9" t="n">
         <v>0</v>
@@ -11577,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="n">
         <v>198</v>
       </c>
@@ -11585,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D199" s="9" t="n">
         <v>0</v>
@@ -11615,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="n">
         <v>199</v>
       </c>
@@ -11623,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="C200" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D200" s="9" t="n">
         <v>0</v>
@@ -11653,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="n">
         <v>200</v>
       </c>
@@ -11661,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D201" s="9" t="n">
         <v>0</v>
@@ -11691,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="n">
         <v>201</v>
       </c>
@@ -11699,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="C202" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D202" s="9" t="n">
         <v>0</v>
@@ -11729,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="n">
         <v>202</v>
       </c>
@@ -11737,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="C203" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D203" s="9" t="n">
         <v>0</v>
@@ -11767,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="n">
         <v>203</v>
       </c>
@@ -11775,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D204" s="9" t="n">
         <v>0</v>
@@ -11805,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="n">
         <v>204</v>
       </c>
@@ -11813,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D205" s="9" t="n">
         <v>0</v>
@@ -11843,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="n">
         <v>205</v>
       </c>
@@ -11851,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D206" s="9" t="n">
         <v>0</v>
@@ -11881,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="n">
         <v>206</v>
       </c>
@@ -11889,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="C207" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D207" s="9" t="n">
         <v>0</v>
@@ -11919,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="n">
         <v>207</v>
       </c>
@@ -11927,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D208" s="9" t="n">
         <v>0</v>
@@ -11957,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="n">
         <v>208</v>
       </c>
@@ -11965,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D209" s="9" t="n">
         <v>0</v>
@@ -11995,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="n">
         <v>209</v>
       </c>
@@ -12003,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D210" s="9" t="n">
         <v>0</v>
@@ -12033,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="n">
         <v>210</v>
       </c>
@@ -12041,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D211" s="9" t="n">
         <v>0</v>
@@ -12071,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="n">
         <v>211</v>
       </c>
@@ -12079,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D212" s="9" t="n">
         <v>0</v>
@@ -12109,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="n">
         <v>212</v>
       </c>
@@ -12117,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D213" s="9" t="n">
         <v>0</v>
@@ -12147,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="n">
         <v>213</v>
       </c>
@@ -12155,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D214" s="9" t="n">
         <v>0</v>
@@ -12185,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9" t="n">
         <v>214</v>
       </c>
@@ -12193,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D215" s="9" t="n">
         <v>0</v>
@@ -12223,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="n">
         <v>215</v>
       </c>
@@ -12231,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D216" s="9" t="n">
         <v>0</v>
@@ -12261,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="n">
         <v>216</v>
       </c>
@@ -12269,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D217" s="9" t="n">
         <v>0</v>
@@ -12299,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="n">
         <v>217</v>
       </c>
@@ -12307,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D218" s="9" t="n">
         <v>0</v>
@@ -12337,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="9" t="n">
         <v>218</v>
       </c>
@@ -12345,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D219" s="9" t="n">
         <v>0</v>
@@ -12375,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="n">
         <v>219</v>
       </c>
@@ -12383,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D220" s="9" t="n">
         <v>0</v>
@@ -12413,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="9" t="n">
         <v>220</v>
       </c>
@@ -12421,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D221" s="9" t="n">
         <v>0</v>
@@ -12451,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="n">
         <v>221</v>
       </c>
@@ -12459,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D222" s="9" t="n">
         <v>0</v>
@@ -12489,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="n">
         <v>222</v>
       </c>
@@ -12497,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D223" s="9" t="n">
         <v>0</v>
@@ -12527,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="n">
         <v>223</v>
       </c>
@@ -12535,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D224" s="9" t="n">
         <v>0</v>
@@ -12565,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="9" t="n">
         <v>224</v>
       </c>
@@ -12573,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D225" s="9" t="n">
         <v>0</v>
@@ -12603,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="n">
         <v>225</v>
       </c>
@@ -12611,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D226" s="9" t="n">
         <v>0</v>
@@ -12641,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="9" t="n">
         <v>226</v>
       </c>
@@ -12649,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D227" s="9" t="n">
         <v>0</v>
@@ -12679,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="n">
         <v>227</v>
       </c>
@@ -12687,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D228" s="9" t="n">
         <v>0</v>
@@ -12717,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="n">
         <v>228</v>
       </c>
@@ -12725,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D229" s="9" t="n">
         <v>0</v>
@@ -12755,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="n">
         <v>229</v>
       </c>
@@ -12763,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D230" s="9" t="n">
         <v>0</v>
@@ -12793,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="9" t="n">
         <v>230</v>
       </c>
@@ -12801,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D231" s="9" t="n">
         <v>0</v>
@@ -12831,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="n">
         <v>231</v>
       </c>
@@ -12839,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D232" s="9" t="n">
         <v>0</v>
@@ -12869,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="9" t="n">
         <v>232</v>
       </c>
@@ -12877,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D233" s="9" t="n">
         <v>0</v>
@@ -12907,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="n">
         <v>233</v>
       </c>
@@ -12915,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D234" s="9" t="n">
         <v>0</v>
@@ -12945,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="9" t="n">
         <v>234</v>
       </c>
@@ -12953,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D235" s="9" t="n">
         <v>0</v>
@@ -12983,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="n">
         <v>235</v>
       </c>
@@ -12991,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D236" s="9" t="n">
         <v>0</v>
@@ -13021,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="n">
         <v>236</v>
       </c>
@@ -13029,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D237" s="9" t="n">
         <v>0</v>
@@ -13059,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="n">
         <v>237</v>
       </c>
@@ -13067,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D238" s="9" t="n">
         <v>0</v>
@@ -13097,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="9" t="n">
         <v>238</v>
       </c>
@@ -13105,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D239" s="9" t="n">
         <v>0</v>
@@ -13135,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="n">
         <v>239</v>
       </c>
@@ -13143,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D240" s="9" t="n">
         <v>0</v>
@@ -13173,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="n">
         <v>240</v>
       </c>
@@ -13181,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D241" s="9" t="n">
         <v>0</v>
@@ -13230,10 +12601,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
@@ -13249,7 +12620,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="9.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -13287,7 +12658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
@@ -13295,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0</v>
@@ -13325,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -13333,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>0</v>
@@ -13363,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -13371,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>0</v>
@@ -13401,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -13409,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>0</v>
@@ -13439,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -13447,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>0</v>
@@ -13477,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
@@ -13485,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>0</v>
@@ -13515,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -13523,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
@@ -13553,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
@@ -13561,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0</v>
@@ -13591,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
@@ -13599,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -13629,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -13637,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -13667,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
@@ -13675,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -13705,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -13713,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -13743,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
@@ -13751,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -13781,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
@@ -13789,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
@@ -13819,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
@@ -13827,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>0</v>
@@ -13857,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
@@ -13865,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>0</v>
@@ -13895,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
@@ -13903,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0</v>
@@ -13933,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
@@ -13941,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -13971,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
@@ -13979,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>0</v>
@@ -14009,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
@@ -14017,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>0</v>
@@ -14047,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
@@ -14055,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>0</v>
@@ -14085,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
@@ -14093,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="n">
         <v>0</v>
@@ -14123,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
@@ -14131,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>0</v>
@@ -14161,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
@@ -14169,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>0</v>
@@ -14199,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
@@ -14207,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>0</v>
@@ -14237,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
@@ -14245,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>0</v>
@@ -14275,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
@@ -14283,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="9" t="n">
         <v>0</v>
@@ -14313,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
@@ -14321,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>0</v>
@@ -14351,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
@@ -14359,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9" t="n">
         <v>0</v>
@@ -14389,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
@@ -14397,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>0</v>
@@ -14427,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
@@ -14435,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>0</v>
@@ -14465,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
@@ -14473,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>0</v>
@@ -14503,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
@@ -14511,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>0</v>
@@ -14541,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
@@ -14549,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>0</v>
@@ -14579,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
@@ -14587,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>0</v>
@@ -14617,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
@@ -14625,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>0</v>
@@ -14655,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
@@ -14663,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>0</v>
@@ -14693,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
@@ -14701,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>0</v>
@@ -14731,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
@@ -14739,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9" t="n">
         <v>0</v>
@@ -14769,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
@@ -14777,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" s="9" t="n">
         <v>0</v>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId3"/>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>1</v>
@@ -928,6 +928,851 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -971,10 +1816,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1791,6 +2636,400 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1809,8 +3048,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3008,384 +4247,144 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3405,8 +4404,8 @@
   </sheetPr>
   <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12601,7 +13600,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13799,384 +14798,144 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId3"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A7:L26 L32 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="A7:L26 L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,764 +1005,284 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1819,7 +1339,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="2" sqref="A7:L26 L32 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3048,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U24" activeCellId="2" sqref="A7:L26 L32 U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4405,7 +3925,7 @@
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="2" sqref="A7:L26 L32 O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13600,7 +13120,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="2" sqref="A7:L26 L32 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A7:L26 L32 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="1" sqref="A7:L26 L32"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
       <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="n">
@@ -929,80 +929,32 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
@@ -1242,48 +1194,9 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1339,7 +1252,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="2" sqref="A7:L26 L32 A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2569,7 +2482,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U24" activeCellId="2" sqref="A7:L26 L32 U24"/>
+      <selection pane="topLeft" activeCell="U24" activeCellId="0" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3925,7 +3838,7 @@
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="2" sqref="A7:L26 L32 O18"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13120,7 +13033,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="2" sqref="A7:L26 L32 A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>0</v>
